--- a/code/excels/building/building_unit_tower.xlsx
+++ b/code/excels/building/building_unit_tower.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1112">
   <si>
     <t>主键</t>
   </si>
@@ -531,2209 +531,2212 @@
     <t>lina_3</t>
   </si>
   <si>
+    <t>building_auto_findtreasure</t>
+  </si>
+  <si>
+    <t>ability_tp</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
+  </si>
+  <si>
+    <t>particles/base_attacks/ranged_hero.vpcf</t>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_AGILITY</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
+  </si>
+  <si>
+    <t>npc_dota_creature</t>
+  </si>
+  <si>
+    <t>Hero_EmberSpirit</t>
+  </si>
+  <si>
+    <t>Hero_EmberSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_ember_spirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_ember_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_ember_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+  </si>
+  <si>
+    <t>modifier_ember_spirit_attack_sound</t>
+  </si>
+  <si>
+    <t>models/heroes/ember_spirit/ember_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_lina</t>
+  </si>
+  <si>
+    <t>item_building_hero_lina</t>
+  </si>
+  <si>
+    <t>莉娜</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_lina</t>
+  </si>
+  <si>
+    <t>princess_3</t>
+  </si>
+  <si>
+    <t>fire_1</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_INTELLECT</t>
+  </si>
+  <si>
+    <t>Hero_Lina</t>
+  </si>
+  <si>
+    <t>Hero_Lina.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lina</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_lina.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_lina.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lina/lina.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_axe</t>
+  </si>
+  <si>
+    <t>item_building_hero_axe</t>
+  </si>
+  <si>
+    <t>斧王</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_axe</t>
+  </si>
+  <si>
+    <t>berserker_1</t>
+  </si>
+  <si>
+    <t>madman_1</t>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_STRENGTH</t>
+  </si>
+  <si>
+    <t>Hero_Axe</t>
+  </si>
+  <si>
+    <t>Hero_Axe.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_axe</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_axe.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_axe.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_axe_attack_sound</t>
+  </si>
+  <si>
+    <t>models/heroes/axe/axe.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_tinker</t>
+  </si>
+  <si>
+    <t>item_building_hero_tinker</t>
+  </si>
+  <si>
+    <t>修补匠</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_tinker</t>
+  </si>
+  <si>
+    <t>warframe_1</t>
+  </si>
+  <si>
+    <t>engineer_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_tinker/tinker_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Tinker</t>
+  </si>
+  <si>
+    <t>Hero_Tinker.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_tinker</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_tinker.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_tinker.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/tinker/tinker.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_sniper</t>
+  </si>
+  <si>
+    <t>item_building_hero_sniper</t>
+  </si>
+  <si>
+    <t>狙击手</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_sniper</t>
+  </si>
+  <si>
+    <t>gunner_1</t>
+  </si>
+  <si>
+    <t>dwarf_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_sniper/sniper_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Sniper</t>
+  </si>
+  <si>
+    <t>Hero_Sniper.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_sniper</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_sniper.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_sniper.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_ambient_sniper | modifier_ambient_sniper_attack_speed</t>
+  </si>
+  <si>
+    <t>models/heroes/sniper/sniper.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>风暴之灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>spirits_1</t>
+  </si>
+  <si>
+    <t>storm_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_stormspirit/stormspirit_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_StormSpirit</t>
+  </si>
+  <si>
+    <t>Hero_StormSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_stormspirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_stormspirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_stormspirit.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/storm_spirit/storm_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>item_building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>死亡先知</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>god_2</t>
+  </si>
+  <si>
+    <t>furion_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_death_prophet/death_prophet_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_DeathProphet</t>
+  </si>
+  <si>
+    <t>Hero_DeathProphet.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_death_prophet</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_death_prophet.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_shadowshaman.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/death_prophet/death_prophet.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_luna</t>
+  </si>
+  <si>
+    <t>item_building_hero_luna</t>
+  </si>
+  <si>
+    <t>露娜</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_luna</t>
+  </si>
+  <si>
+    <t>envoy_1</t>
+  </si>
+  <si>
+    <t>moonvalley_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_luna/luna_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Luna</t>
+  </si>
+  <si>
+    <t>Hero_Luna.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_luna</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_luna.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_luna.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/luna/luna.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>item_building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>swordman_1</t>
+  </si>
+  <si>
+    <t>faceles_island_1</t>
+  </si>
+  <si>
+    <t>Hero_Juggernaut</t>
+  </si>
+  <si>
+    <t>Hero_Juggernaut.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_juggernaut</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_juggernaut.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_juggernaut.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_lycan</t>
+  </si>
+  <si>
+    <t>item_building_hero_lycan</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_lycan</t>
+  </si>
+  <si>
+    <t>wolf_1</t>
+  </si>
+  <si>
+    <t>former_1</t>
+  </si>
+  <si>
+    <t>Hero_Lycan</t>
+  </si>
+  <si>
+    <t>Hero_Lycan.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lycan</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_lycan.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_lycan.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lycan/lycan.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>item_building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>剧毒术士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>poison_2</t>
+  </si>
+  <si>
+    <t>warlock_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_venomancer/venomancer_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Venomancer</t>
+  </si>
+  <si>
+    <t>Hero_Venomancer.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_venomancer</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_venomancer.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_venomancer.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/venomancer/venomancer.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>item_building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>干扰者</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>electricity_1</t>
+  </si>
+  <si>
+    <t>warlock_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_disruptor/disruptor_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Disruptor</t>
+  </si>
+  <si>
+    <t>Hero_Disruptor.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_disruptor</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_disruptor.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_disruptor.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/disruptor/disruptor.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>item_building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>混沌骑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>Hero_ChaosKnight</t>
+  </si>
+  <si>
+    <t>Hero_ChaosKnight.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_chaos_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_chaos_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/chaos_knight/chaos_knight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>item_building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>冰霜巨龙</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>dragon_1</t>
+  </si>
+  <si>
+    <t>frostfield_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_winter_wyvern/winter_wyvern_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Winter_Wyvern</t>
+  </si>
+  <si>
+    <t>Hero_Winter_Wyvern.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_winter_wyvern.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_winter_wyvern.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>item_building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>former_2</t>
+  </si>
+  <si>
+    <t>forest_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lone_druid/lone_druid_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_LoneDruid</t>
+  </si>
+  <si>
+    <t>Hero_LoneDruid.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lone_druid</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_lone_druid.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_lone_druid.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lone_druid/lone_druid.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>item_building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>炼金</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>goblin_1</t>
+  </si>
+  <si>
+    <t>fat_3</t>
+  </si>
+  <si>
+    <t>models/heroes/alchemist/alchemist.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>item_building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>圣堂刺客</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>templar_1</t>
+  </si>
+  <si>
+    <t>assassin_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_templar_assassin/templar_assassin_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_TemplarAssassin</t>
+  </si>
+  <si>
+    <t>Hero_TemplarAssassin.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_templar_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_templar_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lanaya/lanaya.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_furion</t>
+  </si>
+  <si>
+    <t>item_building_hero_furion</t>
+  </si>
+  <si>
+    <t>先知</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_furion</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>forest_1</t>
+  </si>
+  <si>
+    <t>furion_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_furion/furion_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Furion</t>
+  </si>
+  <si>
+    <t>Hero_Furion.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_furion</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_furion.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_furion.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/furion/furion.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_shredder</t>
+  </si>
+  <si>
+    <t>item_building_hero_shredder</t>
+  </si>
+  <si>
+    <t>伐木机</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_shredder</t>
+  </si>
+  <si>
+    <t>warframe_2</t>
+  </si>
+  <si>
+    <t>madman_2</t>
+  </si>
+  <si>
+    <t>Hero_Shredder</t>
+  </si>
+  <si>
+    <t>Hero_Shredder.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_shredder</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_shredder.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_shredder.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_ambient_shredder</t>
+  </si>
+  <si>
+    <t>models/heroes/shredder/shredder.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_mirana</t>
+  </si>
+  <si>
+    <t>item_building_hero_mirana</t>
+  </si>
+  <si>
+    <t>米拉娜</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_mirana</t>
+  </si>
+  <si>
+    <t>princess_1</t>
+  </si>
+  <si>
+    <t>moonvalley_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_mirana/mirana_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Mirana</t>
+  </si>
+  <si>
+    <t>Hero_Mirana.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_mirana</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_mirana.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_mirana.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/mirana/mirana.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>虚无之灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>spirits_3</t>
+  </si>
+  <si>
+    <t>void_1</t>
+  </si>
+  <si>
+    <t>Hero_VoidSpirit</t>
+  </si>
+  <si>
+    <t>Hero_VoidSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_void_spirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_void_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_void_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/void_spirit/void_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>item_building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>thief_1</t>
+  </si>
+  <si>
+    <t>predator_1</t>
+  </si>
+  <si>
+    <t>Hero_BountyHunter</t>
+  </si>
+  <si>
+    <t>Hero_BountyHunter.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_bounty_hunter.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_bounty_hunter.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_bounty_hunter_track_bounty</t>
+  </si>
+  <si>
+    <t>models/heroes/bounty_hunter/bounty_hunter.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>item_building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>龙骑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>hostile_1</t>
+  </si>
+  <si>
+    <t>Hero_DragonKnight</t>
+  </si>
+  <si>
+    <t>Hero_DragonKnight.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_dragon_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_dragon_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/dragon_knight/dragon_knight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_slardar</t>
+  </si>
+  <si>
+    <t>item_building_hero_slardar</t>
+  </si>
+  <si>
+    <t>斯拉达</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_slardar</t>
+  </si>
+  <si>
+    <t>guard_1</t>
+  </si>
+  <si>
+    <t>sea_1</t>
+  </si>
+  <si>
+    <t>Hero_Slardar</t>
+  </si>
+  <si>
+    <t>Hero_Slardar.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_slardar</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_slardar.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_slardar.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/slardar/slardar.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_slark</t>
+  </si>
+  <si>
+    <t>item_building_hero_slark</t>
+  </si>
+  <si>
+    <t>斯拉克</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_slark</t>
+  </si>
+  <si>
+    <t>predator_2</t>
+  </si>
+  <si>
+    <t>sea_2</t>
+  </si>
+  <si>
+    <t>Hero_Slark</t>
+  </si>
+  <si>
+    <t>Hero_Slark.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_slark</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_slark.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_slark.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/slark/slark.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_ursa</t>
+  </si>
+  <si>
+    <t>item_building_hero_ursa</t>
+  </si>
+  <si>
+    <t>熊战士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_ursa</t>
+  </si>
+  <si>
+    <t>bearman_1</t>
+  </si>
+  <si>
+    <t>Hero_Ursa</t>
+  </si>
+  <si>
+    <t>Hero_Ursa.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_ursa</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_ursa.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_ursa.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/ursa/ursa.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>item_building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>水晶室女</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>princess_2</t>
+  </si>
+  <si>
+    <t>frostfield_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_crystalmaiden/maiden_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>hero_Crystal</t>
+  </si>
+  <si>
+    <t>Hero_CrystalMaiden.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_crystalmaiden</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_crystalmaiden.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_crystalmaiden.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/crystal_maiden/crystal_maiden.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>item_building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>食人魔魔法师</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>fat_1</t>
+  </si>
+  <si>
+    <t>Hero_OgreMagi</t>
+  </si>
+  <si>
+    <t>Hero_OgreMagi.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_ogre_magi.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_ogre_magi.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/ogre_magi/ogre_magi.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_sven</t>
+  </si>
+  <si>
+    <t>item_building_hero_sven</t>
+  </si>
+  <si>
+    <t>斯文</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_sven</t>
+  </si>
+  <si>
+    <t>warrior_1</t>
+  </si>
+  <si>
+    <t>faceles_island_2</t>
+  </si>
+  <si>
+    <t>Hero_Sven</t>
+  </si>
+  <si>
+    <t>Hero_Sven.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_sven</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_sven.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_sven.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/sven/sven.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_medusa</t>
+  </si>
+  <si>
+    <t>item_building_hero_medusa</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_medusa</t>
+  </si>
+  <si>
+    <t>gunner_2</t>
+  </si>
+  <si>
+    <t>snake_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_medusa/medusa_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Medusa</t>
+  </si>
+  <si>
+    <t>Hero_Medusa.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_medusa</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_medusa.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_medusa.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/medusa/medusa.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>item_building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>拉希克</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_leshrac/leshrac_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Leshrac</t>
+  </si>
+  <si>
+    <t>Hero_Leshrac.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_leshrac</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_leshrac.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_leshrac.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/leshrac/leshrac.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_centaur</t>
+  </si>
+  <si>
+    <t>item_building_hero_centaur</t>
+  </si>
+  <si>
+    <t>半人马战行者</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_centaur</t>
+  </si>
+  <si>
+    <t>centaur_1</t>
+  </si>
+  <si>
+    <t>Hero_Centaur</t>
+  </si>
+  <si>
+    <t>Hero_Centaur.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_centaur</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_centaur.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_centaur.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/centaur/centaur.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_zuus</t>
+  </si>
+  <si>
+    <t>item_building_hero_zuus</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_zuus</t>
+  </si>
+  <si>
+    <t>god_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_zuus/zuus_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_zuus</t>
+  </si>
+  <si>
+    <t>Hero_zuus.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_zuus</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_zuus.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_zuus.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/zeus/zeus.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_huskar</t>
+  </si>
+  <si>
+    <t>item_building_hero_huskar</t>
+  </si>
+  <si>
+    <t>神灵武士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_huskar</t>
+  </si>
+  <si>
+    <t>warrior_2</t>
+  </si>
+  <si>
+    <t>fire_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_huskar/huskar_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Huskar</t>
+  </si>
+  <si>
+    <t>Hero_Huskar.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_huskar</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_huskar.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_huskar.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/huskar/huskar.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_viper</t>
+  </si>
+  <si>
+    <t>item_building_hero_viper</t>
+  </si>
+  <si>
+    <t>冥界亚龙</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_viper</t>
+  </si>
+  <si>
+    <t>snake_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_viper/viper_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Viper</t>
+  </si>
+  <si>
+    <t>Hero_Viper.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_viper</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_viper.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_viper.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/viper/viper.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>大地之灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>spirits_4</t>
+  </si>
+  <si>
+    <t>earth_1</t>
+  </si>
+  <si>
+    <t>Hero_EarthSpirit</t>
+  </si>
+  <si>
+    <t>Hero_EarthSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_earth_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_earth_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/earth_spirit/earth_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>item_building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>全能骑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>utopia_1</t>
+  </si>
+  <si>
+    <t>templar_2</t>
+  </si>
+  <si>
+    <t>Hero_Omniknight</t>
+  </si>
+  <si>
+    <t>Hero_Omniknight.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_omniknight</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_omniknight.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_omniknight.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/omniknight/omniknight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>item_building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>矮人直升机</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>dwarf_1</t>
+  </si>
+  <si>
+    <t>engineer_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_gyrocopter/gyro_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Gyrocopter</t>
+  </si>
+  <si>
+    <t>Hero_Gyrocopter.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_gyrocopter.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_gyrocopter.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/gyro/gyro.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>item_building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>幻影刺客</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>assassin_2</t>
+  </si>
+  <si>
+    <t>Hero_PhantomAssassin</t>
+  </si>
+  <si>
+    <t>Hero_PhantomAssassin.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_phantom_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_phantom_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_pugna</t>
+  </si>
+  <si>
+    <t>item_building_hero_pugna</t>
+  </si>
+  <si>
+    <t>帕格纳</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_pugna</t>
+  </si>
+  <si>
+    <t>nether_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_pugna/pugna_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Pugna</t>
+  </si>
+  <si>
+    <t>Hero_Pugna.Pick</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_pugna.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_pugna.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/pugna/pugna.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>item_building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>熊灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>models/heroes/lone_druid/spirit_bear.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>item_building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>石鳞剑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>swordman_2</t>
+  </si>
+  <si>
+    <t>utopia_2</t>
+  </si>
+  <si>
+    <t>tower_tp</t>
+  </si>
+  <si>
+    <t>Hero_Pangolier</t>
+  </si>
+  <si>
+    <t>Hero_Pangolier.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_pangolier</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_pangolier.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_pangolin.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/pangolier/pangolier.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t01</t>
+  </si>
+  <si>
+    <t>item_building_hero_t01</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t01</t>
+  </si>
+  <si>
+    <t>dire_1</t>
+  </si>
+  <si>
+    <t>Creep_Bad_Melee</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_creeps.vsndevts</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t02</t>
+  </si>
+  <si>
+    <t>item_building_hero_t02</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t02</t>
+  </si>
+  <si>
+    <t>dire_2</t>
+  </si>
+  <si>
+    <t>particles/base_attacks/ranged_badguy.vpcf</t>
+  </si>
+  <si>
+    <t>Creep_Bad_Range</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_ranged/lane_dire_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t03</t>
+  </si>
+  <si>
+    <t>item_building_hero_t03</t>
+  </si>
+  <si>
+    <t>狂暴枭兽</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t03</t>
+  </si>
+  <si>
+    <t>animal_1</t>
+  </si>
+  <si>
+    <t>particles/econ/items/keeper_of_the_light/kotl_weapon_arcane_staff/keeper_base_attack_arcane_staff.vpcf</t>
+  </si>
+  <si>
+    <t>n_creep_Ranged</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_vulture_a/n_creep_vulture_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t04</t>
+  </si>
+  <si>
+    <t>item_building_hero_t04</t>
+  </si>
+  <si>
+    <t>死灵幽魂</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t04</t>
+  </si>
+  <si>
+    <t>soul_1</t>
+  </si>
+  <si>
+    <t>particles/neutral_fx/ghost_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_ranged_diretide/creep_radiant_ranged_diretide.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t05</t>
+  </si>
+  <si>
+    <t>item_building_hero_t05</t>
+  </si>
+  <si>
+    <t>天辉近战兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t05</t>
+  </si>
+  <si>
+    <t>radiant_1</t>
+  </si>
+  <si>
+    <t>Creep_Good_Melee</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_melee/radiant_melee.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t06</t>
+  </si>
+  <si>
+    <t>item_building_hero_t06</t>
+  </si>
+  <si>
+    <t>天辉远程兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t06</t>
+  </si>
+  <si>
+    <t>radiant_2</t>
+  </si>
+  <si>
+    <t>particles/base_attacks/ranged_goodguy.vpcf</t>
+  </si>
+  <si>
+    <t>Creep_Good_Range</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_ranged/radiant_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t07</t>
+  </si>
+  <si>
+    <t>item_building_hero_t07</t>
+  </si>
+  <si>
+    <t>萨特·地狱使者</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t07</t>
+  </si>
+  <si>
+    <t>envoy_2</t>
+  </si>
+  <si>
+    <t>n_creep_Melee</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_a/n_creep_satyr_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t08</t>
+  </si>
+  <si>
+    <t>item_building_hero_t08</t>
+  </si>
+  <si>
+    <t>风暴巫师</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t08</t>
+  </si>
+  <si>
+    <t>electricity_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_harpy_b/n_creep_harpy_b.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t10</t>
+  </si>
+  <si>
+    <t>item_building_hero_t10</t>
+  </si>
+  <si>
+    <t>半人马酋长</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t10</t>
+  </si>
+  <si>
+    <t>berserker_2</t>
+  </si>
+  <si>
+    <t>centaur_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_centaur_lrg/n_creep_centaur_lrg.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t11</t>
+  </si>
+  <si>
+    <t>item_building_hero_t11</t>
+  </si>
+  <si>
+    <t>黑暗巨魔萨满</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t11</t>
+  </si>
+  <si>
+    <t>poison_1</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_troll_dark_b/n_creep_troll_dark_b.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t12</t>
+  </si>
+  <si>
+    <t>item_building_hero_t12</t>
+  </si>
+  <si>
+    <t>食人魔棒槌手</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t12</t>
+  </si>
+  <si>
+    <t>fat_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_ogre_med/n_creep_ogre_med.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t15</t>
+  </si>
+  <si>
+    <t>item_building_hero_t15</t>
+  </si>
+  <si>
+    <t>狗头人奴隶主</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t15</t>
+  </si>
+  <si>
+    <t>thief_2</t>
+  </si>
+  <si>
+    <t>goblin_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_a/n_creep_kobold_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t16</t>
+  </si>
+  <si>
+    <t>item_building_hero_t16</t>
+  </si>
+  <si>
+    <t>雷肤兽</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t16</t>
+  </si>
+  <si>
+    <t>animal_2</t>
+  </si>
+  <si>
+    <t>particles/neutral_fx/thunderlizard_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_thunder_lizard/n_creep_thunder_lizard_big.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t17</t>
+  </si>
+  <si>
+    <t>item_building_hero_t17</t>
+  </si>
+  <si>
+    <t>森林巨魔巫师</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t17</t>
+  </si>
+  <si>
+    <t>troll_1</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_forest_trolls/n_creep_forest_troll_high_priest.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t19</t>
+  </si>
+  <si>
+    <t>item_building_hero_t19</t>
+  </si>
+  <si>
+    <t>狂暴熊怪</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t19</t>
+  </si>
+  <si>
+    <t>guard_3</t>
+  </si>
+  <si>
+    <t>bearman_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_furbolg/n_creep_furbolg_disrupter.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t21</t>
+  </si>
+  <si>
+    <t>item_building_hero_t21</t>
+  </si>
+  <si>
+    <t>虚灵守卫</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t21</t>
+  </si>
+  <si>
+    <t>guard_2</t>
+  </si>
+  <si>
+    <t>nether_2</t>
+  </si>
+  <si>
+    <t>models/items/pugna/ward/draining_wight/draining_wight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t22</t>
+  </si>
+  <si>
+    <t>item_building_hero_t22</t>
+  </si>
+  <si>
+    <t>魔火精灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t22</t>
+  </si>
+  <si>
+    <t>puppet_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_invoker/invoker_forged_spirit_projectile.vpcf</t>
+  </si>
+  <si>
+    <t>models/heroes/invoker/forge_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t23</t>
+  </si>
+  <si>
+    <t>item_building_hero_t23</t>
+  </si>
+  <si>
+    <t>恐怖之狼</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t23</t>
+  </si>
+  <si>
+    <t>wolf_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_worg_large/n_creep_worg_large.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t25</t>
+  </si>
+  <si>
+    <t>item_building_hero_t25</t>
+  </si>
+  <si>
+    <t>恶魔之魂</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t25</t>
+  </si>
+  <si>
+    <t>soul_2</t>
+  </si>
+  <si>
+    <t>models/items/invoker/forge_spirit/frostivus2018_invoker_keeper_of_magic_spirit/frostivus2018_invoker_keeper_of_magic_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t27</t>
+  </si>
+  <si>
+    <t>item_building_hero_t27</t>
+  </si>
+  <si>
+    <t>风元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t27</t>
+  </si>
+  <si>
+    <t>elements_1</t>
+  </si>
+  <si>
+    <t>storm_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_brewmaster/brewmaster_storm_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Brewmaster_Storm</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_windspirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t28</t>
+  </si>
+  <si>
+    <t>item_building_hero_t28</t>
+  </si>
+  <si>
+    <t>土元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t28</t>
+  </si>
+  <si>
+    <t>elements_2</t>
+  </si>
+  <si>
+    <t>earth_2</t>
+  </si>
+  <si>
+    <t>Brewmaster_Earth</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_earthspirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t29</t>
+  </si>
+  <si>
+    <t>item_building_hero_t29</t>
+  </si>
+  <si>
+    <t>火元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t29</t>
+  </si>
+  <si>
+    <t>elements_3</t>
+  </si>
+  <si>
+    <t>flame_1</t>
+  </si>
+  <si>
+    <t>Brewmaster_Fire</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_firespirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t34</t>
+  </si>
+  <si>
+    <t>item_building_hero_t34</t>
+  </si>
+  <si>
+    <t>花岗石傀儡</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t34</t>
+  </si>
+  <si>
+    <t>puppet_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_golem_a/neutral_creep_golem_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t35</t>
+  </si>
+  <si>
+    <t>item_building_hero_t35</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t35</t>
+  </si>
+  <si>
+    <t>hellfire_1</t>
+  </si>
+  <si>
+    <t>Hero_WarlockGolem</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_warlock.vsndevts</t>
+  </si>
+  <si>
+    <t>models/items/warlock/golem/hellsworn_golem/hellsworn_golem.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t36</t>
+  </si>
+  <si>
+    <t>item_building_hero_t36</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t36</t>
+  </si>
+  <si>
+    <t>hostile_2</t>
+  </si>
+  <si>
+    <t>dragon_2</t>
+  </si>
+  <si>
+    <t>particles/neutral_fx/black_dragon_attack.vpcf</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t37</t>
+  </si>
+  <si>
+    <t>item_building_hero_t37</t>
+  </si>
+  <si>
+    <t>虚无元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t37</t>
+  </si>
+  <si>
+    <t>elements_4</t>
+  </si>
+  <si>
+    <t>void_2</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_voidspirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t41</t>
+  </si>
+  <si>
+    <t>item_building_hero_t41</t>
+  </si>
+  <si>
+    <t>巨魔勇士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t41</t>
+  </si>
+  <si>
+    <t>troll_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_troll_dark_a/n_creep_troll_dark_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>item_building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>芒果树</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>models/props_tree/mango_tree.vmdl</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>building_unit_tower</t>
+  </si>
+  <si>
+    <t>Creature</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>2&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>3&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>4&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>5&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>6&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>7&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>8&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>9&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>10&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>ember_spirit_1</t>
+  </si>
+  <si>
+    <t>ember_spirit_2</t>
+  </si>
+  <si>
+    <t>ember_spirit_3</t>
+  </si>
+  <si>
     <t>ability_empty</t>
-  </si>
-  <si>
-    <t>ability_tp</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
-  </si>
-  <si>
-    <t>particles/base_attacks/ranged_hero.vpcf</t>
-  </si>
-  <si>
-    <t>DOTA_ATTRIBUTE_AGILITY</t>
-  </si>
-  <si>
-    <t>HERO</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
-  </si>
-  <si>
-    <t>npc_dota_creature</t>
-  </si>
-  <si>
-    <t>Hero_EmberSpirit</t>
-  </si>
-  <si>
-    <t>Hero_EmberSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_ember_spirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_ember_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_ember_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
-  </si>
-  <si>
-    <t>modifier_ember_spirit_attack_sound</t>
-  </si>
-  <si>
-    <t>models/heroes/ember_spirit/ember_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_lina</t>
-  </si>
-  <si>
-    <t>item_building_hero_lina</t>
-  </si>
-  <si>
-    <t>莉娜</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_lina</t>
-  </si>
-  <si>
-    <t>princess_3</t>
-  </si>
-  <si>
-    <t>fire_1</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>DOTA_ATTRIBUTE_INTELLECT</t>
-  </si>
-  <si>
-    <t>Hero_Lina</t>
-  </si>
-  <si>
-    <t>Hero_Lina.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lina</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_lina.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_lina.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lina/lina.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_axe</t>
-  </si>
-  <si>
-    <t>item_building_hero_axe</t>
-  </si>
-  <si>
-    <t>斧王</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_axe</t>
-  </si>
-  <si>
-    <t>berserker_1</t>
-  </si>
-  <si>
-    <t>madman_1</t>
-  </si>
-  <si>
-    <t>DOTA_ATTRIBUTE_STRENGTH</t>
-  </si>
-  <si>
-    <t>Hero_Axe</t>
-  </si>
-  <si>
-    <t>Hero_Axe.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_axe</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_axe.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_axe.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_axe_attack_sound</t>
-  </si>
-  <si>
-    <t>models/heroes/axe/axe.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_tinker</t>
-  </si>
-  <si>
-    <t>item_building_hero_tinker</t>
-  </si>
-  <si>
-    <t>修补匠</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_tinker</t>
-  </si>
-  <si>
-    <t>warframe_1</t>
-  </si>
-  <si>
-    <t>engineer_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_tinker/tinker_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Tinker</t>
-  </si>
-  <si>
-    <t>Hero_Tinker.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_tinker</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_tinker.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_tinker.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/tinker/tinker.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_sniper</t>
-  </si>
-  <si>
-    <t>item_building_hero_sniper</t>
-  </si>
-  <si>
-    <t>狙击手</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_sniper</t>
-  </si>
-  <si>
-    <t>gunner_1</t>
-  </si>
-  <si>
-    <t>dwarf_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_sniper/sniper_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Sniper</t>
-  </si>
-  <si>
-    <t>Hero_Sniper.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_sniper</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_sniper.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_sniper.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_ambient_sniper | modifier_ambient_sniper_attack_speed</t>
-  </si>
-  <si>
-    <t>models/heroes/sniper/sniper.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>风暴之灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>spirits_1</t>
-  </si>
-  <si>
-    <t>storm_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_stormspirit/stormspirit_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_StormSpirit</t>
-  </si>
-  <si>
-    <t>Hero_StormSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_stormspirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_stormspirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_stormspirit.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/storm_spirit/storm_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>item_building_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>死亡先知</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>god_2</t>
-  </si>
-  <si>
-    <t>furion_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_death_prophet/death_prophet_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_DeathProphet</t>
-  </si>
-  <si>
-    <t>Hero_DeathProphet.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_death_prophet</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_death_prophet.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_shadowshaman.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/death_prophet/death_prophet.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_luna</t>
-  </si>
-  <si>
-    <t>item_building_hero_luna</t>
-  </si>
-  <si>
-    <t>露娜</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_luna</t>
-  </si>
-  <si>
-    <t>envoy_1</t>
-  </si>
-  <si>
-    <t>moonvalley_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_luna/luna_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Luna</t>
-  </si>
-  <si>
-    <t>Hero_Luna.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_luna</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_luna.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_luna.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/luna/luna.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>item_building_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>主宰</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>swordman_1</t>
-  </si>
-  <si>
-    <t>faceles_island_1</t>
-  </si>
-  <si>
-    <t>Hero_Juggernaut</t>
-  </si>
-  <si>
-    <t>Hero_Juggernaut.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_juggernaut</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_juggernaut.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_juggernaut.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_lycan</t>
-  </si>
-  <si>
-    <t>item_building_hero_lycan</t>
-  </si>
-  <si>
-    <t>狼人</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_lycan</t>
-  </si>
-  <si>
-    <t>wolf_1</t>
-  </si>
-  <si>
-    <t>former_1</t>
-  </si>
-  <si>
-    <t>Hero_Lycan</t>
-  </si>
-  <si>
-    <t>Hero_Lycan.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lycan</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_lycan.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_lycan.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lycan/lycan.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>item_building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>剧毒术士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>poison_2</t>
-  </si>
-  <si>
-    <t>warlock_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_venomancer/venomancer_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Venomancer</t>
-  </si>
-  <si>
-    <t>Hero_Venomancer.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_venomancer</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_venomancer.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_venomancer.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/venomancer/venomancer.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_disruptor</t>
-  </si>
-  <si>
-    <t>item_building_hero_disruptor</t>
-  </si>
-  <si>
-    <t>干扰者</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_disruptor</t>
-  </si>
-  <si>
-    <t>electricity_1</t>
-  </si>
-  <si>
-    <t>warlock_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_disruptor/disruptor_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Disruptor</t>
-  </si>
-  <si>
-    <t>Hero_Disruptor.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_disruptor</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_disruptor.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_disruptor.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/disruptor/disruptor.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>item_building_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>混沌骑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>Hero_ChaosKnight</t>
-  </si>
-  <si>
-    <t>Hero_ChaosKnight.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_chaos_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_chaos_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/chaos_knight/chaos_knight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>item_building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>冰霜巨龙</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>dragon_1</t>
-  </si>
-  <si>
-    <t>frostfield_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_winter_wyvern/winter_wyvern_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Winter_Wyvern</t>
-  </si>
-  <si>
-    <t>Hero_Winter_Wyvern.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_winter_wyvern.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_winter_wyvern.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>item_building_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>former_2</t>
-  </si>
-  <si>
-    <t>forest_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lone_druid/lone_druid_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_LoneDruid</t>
-  </si>
-  <si>
-    <t>Hero_LoneDruid.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lone_druid</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_lone_druid.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_lone_druid.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lone_druid/lone_druid.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_alchemist</t>
-  </si>
-  <si>
-    <t>item_building_hero_alchemist</t>
-  </si>
-  <si>
-    <t>炼金</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_alchemist</t>
-  </si>
-  <si>
-    <t>goblin_1</t>
-  </si>
-  <si>
-    <t>fat_3</t>
-  </si>
-  <si>
-    <t>models/heroes/alchemist/alchemist.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>item_building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>圣堂刺客</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>templar_1</t>
-  </si>
-  <si>
-    <t>assassin_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_templar_assassin/templar_assassin_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_TemplarAssassin</t>
-  </si>
-  <si>
-    <t>Hero_TemplarAssassin.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_templar_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_templar_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lanaya/lanaya.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_furion</t>
-  </si>
-  <si>
-    <t>item_building_hero_furion</t>
-  </si>
-  <si>
-    <t>先知</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_furion</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>forest_1</t>
-  </si>
-  <si>
-    <t>furion_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_furion/furion_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Furion</t>
-  </si>
-  <si>
-    <t>Hero_Furion.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_furion</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_furion.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_furion.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/furion/furion.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_shredder</t>
-  </si>
-  <si>
-    <t>item_building_hero_shredder</t>
-  </si>
-  <si>
-    <t>伐木机</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_shredder</t>
-  </si>
-  <si>
-    <t>warframe_2</t>
-  </si>
-  <si>
-    <t>madman_2</t>
-  </si>
-  <si>
-    <t>Hero_Shredder</t>
-  </si>
-  <si>
-    <t>Hero_Shredder.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_shredder</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_shredder.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_shredder.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_ambient_shredder</t>
-  </si>
-  <si>
-    <t>models/heroes/shredder/shredder.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_mirana</t>
-  </si>
-  <si>
-    <t>item_building_hero_mirana</t>
-  </si>
-  <si>
-    <t>米拉娜</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_mirana</t>
-  </si>
-  <si>
-    <t>princess_1</t>
-  </si>
-  <si>
-    <t>moonvalley_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_mirana/mirana_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Mirana</t>
-  </si>
-  <si>
-    <t>Hero_Mirana.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_mirana</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_mirana.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_mirana.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/mirana/mirana.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>虚无之灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>spirits_3</t>
-  </si>
-  <si>
-    <t>void_1</t>
-  </si>
-  <si>
-    <t>Hero_VoidSpirit</t>
-  </si>
-  <si>
-    <t>Hero_VoidSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_void_spirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_void_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_void_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/void_spirit/void_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>item_building_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>赏金猎人</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>thief_1</t>
-  </si>
-  <si>
-    <t>predator_1</t>
-  </si>
-  <si>
-    <t>Hero_BountyHunter</t>
-  </si>
-  <si>
-    <t>Hero_BountyHunter.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_bounty_hunter.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_bounty_hunter.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_bounty_hunter_track_bounty</t>
-  </si>
-  <si>
-    <t>models/heroes/bounty_hunter/bounty_hunter.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>item_building_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>龙骑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>hostile_1</t>
-  </si>
-  <si>
-    <t>Hero_DragonKnight</t>
-  </si>
-  <si>
-    <t>Hero_DragonKnight.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_dragon_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_dragon_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/dragon_knight/dragon_knight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_slardar</t>
-  </si>
-  <si>
-    <t>item_building_hero_slardar</t>
-  </si>
-  <si>
-    <t>斯拉达</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_slardar</t>
-  </si>
-  <si>
-    <t>guard_1</t>
-  </si>
-  <si>
-    <t>sea_1</t>
-  </si>
-  <si>
-    <t>Hero_Slardar</t>
-  </si>
-  <si>
-    <t>Hero_Slardar.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_slardar</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_slardar.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_slardar.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/slardar/slardar.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_slark</t>
-  </si>
-  <si>
-    <t>item_building_hero_slark</t>
-  </si>
-  <si>
-    <t>斯拉克</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_slark</t>
-  </si>
-  <si>
-    <t>predator_2</t>
-  </si>
-  <si>
-    <t>sea_2</t>
-  </si>
-  <si>
-    <t>Hero_Slark</t>
-  </si>
-  <si>
-    <t>Hero_Slark.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_slark</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_slark.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_slark.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/slark/slark.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_ursa</t>
-  </si>
-  <si>
-    <t>item_building_hero_ursa</t>
-  </si>
-  <si>
-    <t>熊战士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_ursa</t>
-  </si>
-  <si>
-    <t>bearman_1</t>
-  </si>
-  <si>
-    <t>Hero_Ursa</t>
-  </si>
-  <si>
-    <t>Hero_Ursa.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_ursa</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_ursa.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_ursa.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/ursa/ursa.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>item_building_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>水晶室女</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>princess_2</t>
-  </si>
-  <si>
-    <t>frostfield_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_crystalmaiden/maiden_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>hero_Crystal</t>
-  </si>
-  <si>
-    <t>Hero_CrystalMaiden.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_crystalmaiden</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_crystalmaiden.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_crystalmaiden.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/crystal_maiden/crystal_maiden.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>item_building_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>食人魔魔法师</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>fat_1</t>
-  </si>
-  <si>
-    <t>Hero_OgreMagi</t>
-  </si>
-  <si>
-    <t>Hero_OgreMagi.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_ogre_magi.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_ogre_magi.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/ogre_magi/ogre_magi.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_sven</t>
-  </si>
-  <si>
-    <t>item_building_hero_sven</t>
-  </si>
-  <si>
-    <t>斯文</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_sven</t>
-  </si>
-  <si>
-    <t>warrior_1</t>
-  </si>
-  <si>
-    <t>faceles_island_2</t>
-  </si>
-  <si>
-    <t>Hero_Sven</t>
-  </si>
-  <si>
-    <t>Hero_Sven.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_sven</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_sven.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_sven.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/sven/sven.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_medusa</t>
-  </si>
-  <si>
-    <t>item_building_hero_medusa</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_medusa</t>
-  </si>
-  <si>
-    <t>gunner_2</t>
-  </si>
-  <si>
-    <t>snake_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_medusa/medusa_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Medusa</t>
-  </si>
-  <si>
-    <t>Hero_Medusa.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_medusa</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_medusa.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_medusa.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/medusa/medusa.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_leshrac</t>
-  </si>
-  <si>
-    <t>item_building_hero_leshrac</t>
-  </si>
-  <si>
-    <t>拉希克</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_leshrac</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_leshrac/leshrac_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Leshrac</t>
-  </si>
-  <si>
-    <t>Hero_Leshrac.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_leshrac</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_leshrac.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_leshrac.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/leshrac/leshrac.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_centaur</t>
-  </si>
-  <si>
-    <t>item_building_hero_centaur</t>
-  </si>
-  <si>
-    <t>半人马战行者</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_centaur</t>
-  </si>
-  <si>
-    <t>centaur_1</t>
-  </si>
-  <si>
-    <t>Hero_Centaur</t>
-  </si>
-  <si>
-    <t>Hero_Centaur.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_centaur</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_centaur.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_centaur.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/centaur/centaur.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_zuus</t>
-  </si>
-  <si>
-    <t>item_building_hero_zuus</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_zuus</t>
-  </si>
-  <si>
-    <t>god_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_zuus/zuus_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_zuus</t>
-  </si>
-  <si>
-    <t>Hero_zuus.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_zuus</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_zuus.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_zuus.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/zeus/zeus.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_huskar</t>
-  </si>
-  <si>
-    <t>item_building_hero_huskar</t>
-  </si>
-  <si>
-    <t>神灵武士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_huskar</t>
-  </si>
-  <si>
-    <t>warrior_2</t>
-  </si>
-  <si>
-    <t>fire_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_huskar/huskar_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Huskar</t>
-  </si>
-  <si>
-    <t>Hero_Huskar.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_huskar</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_huskar.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_huskar.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/huskar/huskar.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_viper</t>
-  </si>
-  <si>
-    <t>item_building_hero_viper</t>
-  </si>
-  <si>
-    <t>冥界亚龙</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_viper</t>
-  </si>
-  <si>
-    <t>snake_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_viper/viper_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Viper</t>
-  </si>
-  <si>
-    <t>Hero_Viper.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_viper</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_viper.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_viper.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/viper/viper.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>大地之灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>spirits_4</t>
-  </si>
-  <si>
-    <t>earth_1</t>
-  </si>
-  <si>
-    <t>Hero_EarthSpirit</t>
-  </si>
-  <si>
-    <t>Hero_EarthSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_earth_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_earth_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/earth_spirit/earth_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_omniknight</t>
-  </si>
-  <si>
-    <t>item_building_hero_omniknight</t>
-  </si>
-  <si>
-    <t>全能骑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_omniknight</t>
-  </si>
-  <si>
-    <t>utopia_1</t>
-  </si>
-  <si>
-    <t>templar_2</t>
-  </si>
-  <si>
-    <t>Hero_Omniknight</t>
-  </si>
-  <si>
-    <t>Hero_Omniknight.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_omniknight</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_omniknight.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_omniknight.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/omniknight/omniknight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>item_building_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>矮人直升机</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>dwarf_1</t>
-  </si>
-  <si>
-    <t>engineer_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_gyrocopter/gyro_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Gyrocopter</t>
-  </si>
-  <si>
-    <t>Hero_Gyrocopter.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_gyrocopter.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_gyrocopter.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/gyro/gyro.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>item_building_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>幻影刺客</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>assassin_2</t>
-  </si>
-  <si>
-    <t>Hero_PhantomAssassin</t>
-  </si>
-  <si>
-    <t>Hero_PhantomAssassin.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_phantom_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_phantom_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_pugna</t>
-  </si>
-  <si>
-    <t>item_building_hero_pugna</t>
-  </si>
-  <si>
-    <t>帕格纳</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_pugna</t>
-  </si>
-  <si>
-    <t>nether_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_pugna/pugna_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Pugna</t>
-  </si>
-  <si>
-    <t>Hero_Pugna.Pick</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_pugna.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_pugna.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/pugna/pugna.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>item_building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>熊灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>models/heroes/lone_druid/spirit_bear.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_pangolier</t>
-  </si>
-  <si>
-    <t>item_building_hero_pangolier</t>
-  </si>
-  <si>
-    <t>石鳞剑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_pangolier</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>swordman_2</t>
-  </si>
-  <si>
-    <t>utopia_2</t>
-  </si>
-  <si>
-    <t>tower_tp</t>
-  </si>
-  <si>
-    <t>Hero_Pangolier</t>
-  </si>
-  <si>
-    <t>Hero_Pangolier.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_pangolier</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_pangolier.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_pangolin.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/pangolier/pangolier.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t01</t>
-  </si>
-  <si>
-    <t>item_building_hero_t01</t>
-  </si>
-  <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t01</t>
-  </si>
-  <si>
-    <t>dire_1</t>
-  </si>
-  <si>
-    <t>Creep_Bad_Melee</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_creeps.vsndevts</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t02</t>
-  </si>
-  <si>
-    <t>item_building_hero_t02</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t02</t>
-  </si>
-  <si>
-    <t>dire_2</t>
-  </si>
-  <si>
-    <t>particles/base_attacks/ranged_badguy.vpcf</t>
-  </si>
-  <si>
-    <t>Creep_Bad_Range</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_bad_ranged/lane_dire_ranged.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t03</t>
-  </si>
-  <si>
-    <t>item_building_hero_t03</t>
-  </si>
-  <si>
-    <t>狂暴枭兽</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t03</t>
-  </si>
-  <si>
-    <t>animal_1</t>
-  </si>
-  <si>
-    <t>particles/econ/items/keeper_of_the_light/kotl_weapon_arcane_staff/keeper_base_attack_arcane_staff.vpcf</t>
-  </si>
-  <si>
-    <t>n_creep_Ranged</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_vulture_a/n_creep_vulture_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t04</t>
-  </si>
-  <si>
-    <t>item_building_hero_t04</t>
-  </si>
-  <si>
-    <t>死灵幽魂</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t04</t>
-  </si>
-  <si>
-    <t>soul_1</t>
-  </si>
-  <si>
-    <t>particles/neutral_fx/ghost_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_radiant_ranged_diretide/creep_radiant_ranged_diretide.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t05</t>
-  </si>
-  <si>
-    <t>item_building_hero_t05</t>
-  </si>
-  <si>
-    <t>天辉近战兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t05</t>
-  </si>
-  <si>
-    <t>radiant_1</t>
-  </si>
-  <si>
-    <t>Creep_Good_Melee</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_radiant_melee/radiant_melee.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t06</t>
-  </si>
-  <si>
-    <t>item_building_hero_t06</t>
-  </si>
-  <si>
-    <t>天辉远程兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t06</t>
-  </si>
-  <si>
-    <t>radiant_2</t>
-  </si>
-  <si>
-    <t>particles/base_attacks/ranged_goodguy.vpcf</t>
-  </si>
-  <si>
-    <t>Creep_Good_Range</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_radiant_ranged/radiant_ranged.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t07</t>
-  </si>
-  <si>
-    <t>item_building_hero_t07</t>
-  </si>
-  <si>
-    <t>萨特·地狱使者</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t07</t>
-  </si>
-  <si>
-    <t>envoy_2</t>
-  </si>
-  <si>
-    <t>n_creep_Melee</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_satyr_a/n_creep_satyr_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t08</t>
-  </si>
-  <si>
-    <t>item_building_hero_t08</t>
-  </si>
-  <si>
-    <t>风暴巫师</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t08</t>
-  </si>
-  <si>
-    <t>electricity_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_harpy_b/n_creep_harpy_b.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t10</t>
-  </si>
-  <si>
-    <t>item_building_hero_t10</t>
-  </si>
-  <si>
-    <t>半人马酋长</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t10</t>
-  </si>
-  <si>
-    <t>berserker_2</t>
-  </si>
-  <si>
-    <t>centaur_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_centaur_lrg/n_creep_centaur_lrg.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t11</t>
-  </si>
-  <si>
-    <t>item_building_hero_t11</t>
-  </si>
-  <si>
-    <t>黑暗巨魔萨满</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t11</t>
-  </si>
-  <si>
-    <t>poison_1</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_troll_dark_b/n_creep_troll_dark_b.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t12</t>
-  </si>
-  <si>
-    <t>item_building_hero_t12</t>
-  </si>
-  <si>
-    <t>食人魔棒槌手</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t12</t>
-  </si>
-  <si>
-    <t>fat_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_ogre_med/n_creep_ogre_med.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t15</t>
-  </si>
-  <si>
-    <t>item_building_hero_t15</t>
-  </si>
-  <si>
-    <t>狗头人奴隶主</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t15</t>
-  </si>
-  <si>
-    <t>thief_2</t>
-  </si>
-  <si>
-    <t>goblin_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_a/n_creep_kobold_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t16</t>
-  </si>
-  <si>
-    <t>item_building_hero_t16</t>
-  </si>
-  <si>
-    <t>雷肤兽</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t16</t>
-  </si>
-  <si>
-    <t>animal_2</t>
-  </si>
-  <si>
-    <t>particles/neutral_fx/thunderlizard_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_thunder_lizard/n_creep_thunder_lizard_big.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t17</t>
-  </si>
-  <si>
-    <t>item_building_hero_t17</t>
-  </si>
-  <si>
-    <t>森林巨魔巫师</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t17</t>
-  </si>
-  <si>
-    <t>troll_1</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_forest_trolls/n_creep_forest_troll_high_priest.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t19</t>
-  </si>
-  <si>
-    <t>item_building_hero_t19</t>
-  </si>
-  <si>
-    <t>狂暴熊怪</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t19</t>
-  </si>
-  <si>
-    <t>guard_3</t>
-  </si>
-  <si>
-    <t>bearman_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_furbolg/n_creep_furbolg_disrupter.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t21</t>
-  </si>
-  <si>
-    <t>item_building_hero_t21</t>
-  </si>
-  <si>
-    <t>虚灵守卫</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t21</t>
-  </si>
-  <si>
-    <t>guard_2</t>
-  </si>
-  <si>
-    <t>nether_2</t>
-  </si>
-  <si>
-    <t>models/items/pugna/ward/draining_wight/draining_wight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t22</t>
-  </si>
-  <si>
-    <t>item_building_hero_t22</t>
-  </si>
-  <si>
-    <t>魔火精灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t22</t>
-  </si>
-  <si>
-    <t>puppet_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_invoker/invoker_forged_spirit_projectile.vpcf</t>
-  </si>
-  <si>
-    <t>models/heroes/invoker/forge_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t23</t>
-  </si>
-  <si>
-    <t>item_building_hero_t23</t>
-  </si>
-  <si>
-    <t>恐怖之狼</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t23</t>
-  </si>
-  <si>
-    <t>wolf_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_worg_large/n_creep_worg_large.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t25</t>
-  </si>
-  <si>
-    <t>item_building_hero_t25</t>
-  </si>
-  <si>
-    <t>恶魔之魂</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t25</t>
-  </si>
-  <si>
-    <t>soul_2</t>
-  </si>
-  <si>
-    <t>models/items/invoker/forge_spirit/frostivus2018_invoker_keeper_of_magic_spirit/frostivus2018_invoker_keeper_of_magic_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t27</t>
-  </si>
-  <si>
-    <t>item_building_hero_t27</t>
-  </si>
-  <si>
-    <t>风元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t27</t>
-  </si>
-  <si>
-    <t>elements_1</t>
-  </si>
-  <si>
-    <t>storm_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_brewmaster/brewmaster_storm_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Brewmaster_Storm</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_windspirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t28</t>
-  </si>
-  <si>
-    <t>item_building_hero_t28</t>
-  </si>
-  <si>
-    <t>土元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t28</t>
-  </si>
-  <si>
-    <t>elements_2</t>
-  </si>
-  <si>
-    <t>earth_2</t>
-  </si>
-  <si>
-    <t>Brewmaster_Earth</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_earthspirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t29</t>
-  </si>
-  <si>
-    <t>item_building_hero_t29</t>
-  </si>
-  <si>
-    <t>火元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t29</t>
-  </si>
-  <si>
-    <t>elements_3</t>
-  </si>
-  <si>
-    <t>flame_1</t>
-  </si>
-  <si>
-    <t>Brewmaster_Fire</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_firespirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t34</t>
-  </si>
-  <si>
-    <t>item_building_hero_t34</t>
-  </si>
-  <si>
-    <t>花岗石傀儡</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t34</t>
-  </si>
-  <si>
-    <t>puppet_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_golem_a/neutral_creep_golem_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t35</t>
-  </si>
-  <si>
-    <t>item_building_hero_t35</t>
-  </si>
-  <si>
-    <t>地狱火</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t35</t>
-  </si>
-  <si>
-    <t>hellfire_1</t>
-  </si>
-  <si>
-    <t>Hero_WarlockGolem</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_warlock.vsndevts</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/hellsworn_golem/hellsworn_golem.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t36</t>
-  </si>
-  <si>
-    <t>item_building_hero_t36</t>
-  </si>
-  <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t36</t>
-  </si>
-  <si>
-    <t>hostile_2</t>
-  </si>
-  <si>
-    <t>dragon_2</t>
-  </si>
-  <si>
-    <t>particles/neutral_fx/black_dragon_attack.vpcf</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t37</t>
-  </si>
-  <si>
-    <t>item_building_hero_t37</t>
-  </si>
-  <si>
-    <t>虚无元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t37</t>
-  </si>
-  <si>
-    <t>elements_4</t>
-  </si>
-  <si>
-    <t>void_2</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_voidspirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t41</t>
-  </si>
-  <si>
-    <t>item_building_hero_t41</t>
-  </si>
-  <si>
-    <t>巨魔勇士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t41</t>
-  </si>
-  <si>
-    <t>troll_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_troll_dark_a/n_creep_troll_dark_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>item_building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>芒果树</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>models/props_tree/mango_tree.vmdl</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>表头</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>building_unit_tower</t>
-  </si>
-  <si>
-    <t>Creature</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>1&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>2&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>3&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>4&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>5&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>6&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>7&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>8&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>9&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>10&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>ember_spirit_1</t>
-  </si>
-  <si>
-    <t>ember_spirit_2</t>
-  </si>
-  <si>
-    <t>ember_spirit_3</t>
   </si>
   <si>
     <t>empty_4</t>
@@ -3356,10 +3359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3405,14 +3408,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3427,22 +3467,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3457,15 +3483,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3474,6 +3501,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3496,55 +3538,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3611,7 +3614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3623,31 +3638,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3671,49 +3680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3743,13 +3716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3767,7 +3734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3779,19 +3764,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3848,6 +3851,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3863,22 +3875,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3909,39 +3931,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3951,10 +3954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3963,133 +3966,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4522,8 +4525,8 @@
   <sheetPr/>
   <dimension ref="A1:CI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44:P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4538,7 +4541,7 @@
     <col min="13" max="13" width="25.5833333333333" customWidth="1"/>
     <col min="14" max="14" width="27.9166666666667" customWidth="1"/>
     <col min="15" max="15" width="18.3333333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="23.75" customWidth="1"/>
     <col min="17" max="17" width="21.25" customWidth="1"/>
     <col min="31" max="31" width="91.4166666666667" customWidth="1"/>
     <col min="74" max="74" width="20.25" style="35" customWidth="1"/>
@@ -23587,7 +23590,7 @@
         <v>905</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>171</v>
+        <v>906</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>679</v>
@@ -23837,7 +23840,7 @@
         <v>170</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>679</v>
@@ -24072,16 +24075,16 @@
         <v>6</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>906</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>679</v>
@@ -24322,16 +24325,16 @@
         <v>15</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>679</v>
@@ -24568,16 +24571,16 @@
         <v>4</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>679</v>
@@ -24814,16 +24817,16 @@
         <v>13</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>679</v>
@@ -25056,16 +25059,16 @@
         <v>12</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>679</v>
@@ -25304,16 +25307,16 @@
         <v>8</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>679</v>
@@ -25550,16 +25553,16 @@
         <v>8</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>679</v>
@@ -25798,16 +25801,16 @@
         <v>7</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>679</v>
@@ -26050,16 +26053,16 @@
         <v>6</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>679</v>
@@ -26298,16 +26301,16 @@
         <v>5</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>679</v>
@@ -26544,16 +26547,16 @@
         <v>6</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>679</v>
@@ -26786,16 +26789,16 @@
         <v>6</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>679</v>
@@ -27032,16 +27035,16 @@
         <v>8</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>679</v>
@@ -27282,16 +27285,16 @@
         <v>8</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>679</v>
@@ -27524,16 +27527,16 @@
         <v>14</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>679</v>
@@ -27776,10 +27779,10 @@
         <v>262</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>679</v>
@@ -28024,16 +28027,16 @@
         <v>3</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>679</v>
@@ -28274,16 +28277,16 @@
         <v>2</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>679</v>
@@ -28524,16 +28527,16 @@
         <v>2</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>679</v>
@@ -28768,16 +28771,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>679</v>
@@ -29022,16 +29025,16 @@
         <v>2</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>679</v>
@@ -29272,16 +29275,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>679</v>
@@ -29518,16 +29521,16 @@
         <v>3</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>679</v>
@@ -29766,16 +29769,16 @@
         <v>1</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>679</v>
@@ -30010,16 +30013,16 @@
         <v>2</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>679</v>
@@ -30254,16 +30257,16 @@
         <v>2</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>679</v>
@@ -30502,16 +30505,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>679</v>
@@ -30750,16 +30753,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>679</v>
@@ -30994,16 +30997,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>679</v>
@@ -31246,10 +31249,10 @@
         <v>750</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>679</v>
@@ -31492,16 +31495,16 @@
         <v>2</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>679</v>
@@ -31738,16 +31741,16 @@
         <v>2</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>679</v>
@@ -31982,16 +31985,16 @@
         <v>2</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>679</v>
@@ -32226,16 +32229,16 @@
         <v>2</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>679</v>
@@ -32478,16 +32481,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>679</v>
@@ -32724,16 +32727,16 @@
         <v>2</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>679</v>
@@ -32970,16 +32973,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>679</v>
@@ -33210,16 +33213,16 @@
         <v>2</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>679</v>
@@ -33452,10 +33455,10 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -33666,16 +33669,16 @@
         <v>9</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>679</v>
@@ -33906,16 +33909,16 @@
         <v>10</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>679</v>
@@ -34132,16 +34135,16 @@
         <v>10</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>679</v>
@@ -34360,16 +34363,16 @@
         <v>10</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>679</v>
@@ -34588,16 +34591,16 @@
         <v>10</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>679</v>
@@ -34816,16 +34819,16 @@
         <v>9</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>679</v>
@@ -35042,16 +35045,16 @@
         <v>9</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>679</v>
@@ -35270,16 +35273,16 @@
         <v>10</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>679</v>
@@ -35496,16 +35499,16 @@
         <v>10</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>679</v>
@@ -35726,16 +35729,16 @@
         <v>9</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>679</v>
@@ -35952,16 +35955,16 @@
         <v>10</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>679</v>
@@ -36180,16 +36183,16 @@
         <v>9</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>679</v>
@@ -36408,16 +36411,16 @@
         <v>9</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>679</v>
@@ -36634,16 +36637,16 @@
         <v>10</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>679</v>
@@ -36862,16 +36865,16 @@
         <v>9</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>679</v>
@@ -37092,16 +37095,16 @@
         <v>9</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>679</v>
@@ -37320,16 +37323,16 @@
         <v>10</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>679</v>
@@ -37548,16 +37551,16 @@
         <v>10</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>679</v>
@@ -37776,16 +37779,16 @@
         <v>10</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>679</v>
@@ -38002,16 +38005,16 @@
         <v>9</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>679</v>
@@ -38232,16 +38235,16 @@
         <v>9</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>679</v>
@@ -38462,16 +38465,16 @@
         <v>9</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>679</v>
@@ -38690,16 +38693,16 @@
         <v>10</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>679</v>
@@ -38918,16 +38921,16 @@
         <v>9</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>679</v>
@@ -39144,16 +39147,16 @@
         <v>1</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>679</v>
@@ -39372,16 +39375,16 @@
         <v>9</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>679</v>
@@ -39602,16 +39605,16 @@
         <v>10</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>679</v>
@@ -39826,16 +39829,16 @@
         <v>9</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>679</v>
@@ -40046,7 +40049,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>

--- a/code/excels/building/building_unit_tower.xlsx
+++ b/code/excels/building/building_unit_tower.xlsx
@@ -3359,10 +3359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3408,59 +3408,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3498,9 +3453,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3515,7 +3500,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3532,20 +3546,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3614,108 +3614,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3728,7 +3626,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3740,31 +3728,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3782,19 +3788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3847,45 +3847,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3943,6 +3904,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3954,10 +3954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3966,133 +3966,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4525,8 +4525,8 @@
   <sheetPr/>
   <dimension ref="A1:CI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44:P71"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD$1:AD$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4543,6 +4543,7 @@
     <col min="15" max="15" width="18.3333333333333" customWidth="1"/>
     <col min="16" max="16" width="23.75" customWidth="1"/>
     <col min="17" max="17" width="21.25" customWidth="1"/>
+    <col min="29" max="29" width="11.25" customWidth="1"/>
     <col min="31" max="31" width="91.4166666666667" customWidth="1"/>
     <col min="74" max="74" width="20.25" style="35" customWidth="1"/>
     <col min="75" max="75" width="30.5833333333333" style="35" customWidth="1"/>
@@ -5154,7 +5155,7 @@
         <v>70</v>
       </c>
       <c r="AC3" s="6">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="AD3" s="6">
         <v>1150</v>
@@ -5407,7 +5408,7 @@
         <v>70</v>
       </c>
       <c r="AC4" s="6">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="AD4" s="6">
         <v>1900</v>
@@ -5654,7 +5655,7 @@
         <v>70</v>
       </c>
       <c r="AC5" s="6">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="AD5" s="6">
         <v>1100</v>
@@ -5907,7 +5908,7 @@
         <v>70</v>
       </c>
       <c r="AC6" s="6">
-        <v>900</v>
+        <v>610</v>
       </c>
       <c r="AD6" s="6">
         <v>1500</v>
@@ -6156,7 +6157,7 @@
         <v>70</v>
       </c>
       <c r="AC7" s="6">
-        <v>1150</v>
+        <v>660</v>
       </c>
       <c r="AD7" s="6">
         <v>1900</v>
@@ -6405,7 +6406,7 @@
         <v>70</v>
       </c>
       <c r="AC8" s="6">
-        <v>900</v>
+        <v>590</v>
       </c>
       <c r="AD8" s="6">
         <v>1200</v>
@@ -6650,7 +6651,7 @@
         <v>70</v>
       </c>
       <c r="AC9" s="6">
-        <v>900</v>
+        <v>710</v>
       </c>
       <c r="AD9" s="6">
         <v>1500</v>
@@ -6901,7 +6902,7 @@
         <v>70</v>
       </c>
       <c r="AC10" s="6">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AD10" s="6">
         <v>1300</v>
@@ -7150,7 +7151,7 @@
         <v>70</v>
       </c>
       <c r="AC11" s="6">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="AD11" s="6">
         <v>1300</v>
@@ -7401,7 +7402,7 @@
         <v>70</v>
       </c>
       <c r="AC12" s="6">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="AD12" s="6">
         <v>1300</v>
@@ -7656,7 +7657,7 @@
         <v>70</v>
       </c>
       <c r="AC13" s="6">
-        <v>950</v>
+        <v>560</v>
       </c>
       <c r="AD13" s="6">
         <v>1800</v>
@@ -7907,7 +7908,7 @@
         <v>70</v>
       </c>
       <c r="AC14" s="6">
-        <v>950</v>
+        <v>735</v>
       </c>
       <c r="AD14" s="6">
         <v>1300</v>
@@ -8156,7 +8157,7 @@
         <v>70</v>
       </c>
       <c r="AC15" s="6">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="AD15" s="6">
         <v>1000</v>
@@ -8401,7 +8402,7 @@
         <v>70</v>
       </c>
       <c r="AC16" s="6">
-        <v>900</v>
+        <v>535</v>
       </c>
       <c r="AD16" s="6">
         <v>1200</v>
@@ -8650,7 +8651,7 @@
         <v>70</v>
       </c>
       <c r="AC17" s="6">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="AD17" s="6">
         <v>1100</v>
@@ -8903,7 +8904,7 @@
         <v>70</v>
       </c>
       <c r="AC18" s="6">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="AD18" s="6">
         <v>1100</v>
@@ -9148,7 +9149,7 @@
         <v>70</v>
       </c>
       <c r="AC19" s="6">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="AD19" s="6">
         <v>1100</v>
@@ -9397,7 +9398,7 @@
         <v>70</v>
       </c>
       <c r="AC20" s="6">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="AD20" s="6">
         <v>1100</v>
@@ -9654,7 +9655,7 @@
         <v>70</v>
       </c>
       <c r="AC21" s="6">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="AD21" s="6">
         <v>1100</v>
@@ -9907,7 +9908,7 @@
         <v>70</v>
       </c>
       <c r="AC22" s="6">
-        <v>950</v>
+        <v>740</v>
       </c>
       <c r="AD22" s="6">
         <v>1500</v>
@@ -10160,7 +10161,7 @@
         <v>40</v>
       </c>
       <c r="AC23" s="6">
-        <v>800</v>
+        <v>310</v>
       </c>
       <c r="AD23" s="6">
         <v>1150</v>
@@ -10407,7 +10408,7 @@
         <v>70</v>
       </c>
       <c r="AC24" s="6">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="AD24" s="6">
         <v>1300</v>
@@ -10664,7 +10665,7 @@
         <v>70</v>
       </c>
       <c r="AC25" s="6">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="AD25" s="6">
         <v>1150</v>
@@ -10917,7 +10918,7 @@
         <v>70</v>
       </c>
       <c r="AC26" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD26" s="6">
         <v>1150</v>
@@ -11166,7 +11167,7 @@
         <v>70</v>
       </c>
       <c r="AC27" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD27" s="6">
         <v>1150</v>
@@ -11417,7 +11418,7 @@
         <v>70</v>
       </c>
       <c r="AC28" s="6">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="AD28" s="6">
         <v>1150</v>
@@ -11664,7 +11665,7 @@
         <v>70</v>
       </c>
       <c r="AC29" s="6">
-        <v>950</v>
+        <v>710</v>
       </c>
       <c r="AD29" s="6">
         <v>1500</v>
@@ -11911,7 +11912,7 @@
         <v>70</v>
       </c>
       <c r="AC30" s="6">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="AD30" s="6">
         <v>1100</v>
@@ -12162,7 +12163,7 @@
         <v>70</v>
       </c>
       <c r="AC31" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD31" s="6">
         <v>1300</v>
@@ -12413,7 +12414,7 @@
         <v>70</v>
       </c>
       <c r="AC32" s="6">
-        <v>900</v>
+        <v>710</v>
       </c>
       <c r="AD32" s="6">
         <v>1500</v>
@@ -12660,7 +12661,7 @@
         <v>70</v>
       </c>
       <c r="AC33" s="6">
-        <v>900</v>
+        <v>685</v>
       </c>
       <c r="AD33" s="6">
         <v>1200</v>
@@ -12909,7 +12910,7 @@
         <v>70</v>
       </c>
       <c r="AC34" s="6">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="AD34" s="6">
         <v>1150</v>
@@ -13164,7 +13165,7 @@
         <v>70</v>
       </c>
       <c r="AC35" s="6">
-        <v>950</v>
+        <v>490</v>
       </c>
       <c r="AD35" s="6">
         <v>1900</v>
@@ -13413,7 +13414,7 @@
         <v>70</v>
       </c>
       <c r="AC36" s="6">
-        <v>1050</v>
+        <v>510</v>
       </c>
       <c r="AD36" s="6">
         <v>1500</v>
@@ -13660,7 +13661,7 @@
         <v>70</v>
       </c>
       <c r="AC37" s="6">
-        <v>1100</v>
+        <v>685</v>
       </c>
       <c r="AD37" s="6">
         <v>1900</v>
@@ -13907,7 +13908,7 @@
         <v>70</v>
       </c>
       <c r="AC38" s="6">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="AD38" s="6">
         <v>1150</v>
@@ -14162,7 +14163,7 @@
         <v>70</v>
       </c>
       <c r="AC39" s="6">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="AD39" s="6">
         <v>1000</v>
@@ -14411,7 +14412,7 @@
         <v>70</v>
       </c>
       <c r="AC40" s="6">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="AD40" s="6">
         <v>1100</v>
@@ -14660,7 +14661,7 @@
         <v>70</v>
       </c>
       <c r="AC41" s="6">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="AD41" s="6">
         <v>1100</v>
@@ -14903,7 +14904,7 @@
         <v>70</v>
       </c>
       <c r="AC42" s="6">
-        <v>630</v>
+        <v>740</v>
       </c>
       <c r="AD42" s="6">
         <v>1900</v>
@@ -15142,7 +15143,7 @@
         <v>70</v>
       </c>
       <c r="AC43" s="6">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="AD43" s="6">
         <v>1300</v>
@@ -15365,7 +15366,7 @@
         <v>70</v>
       </c>
       <c r="AC44" s="6">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="AD44" s="6">
         <v>1150</v>
@@ -15608,7 +15609,7 @@
         <v>70</v>
       </c>
       <c r="AC45" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD45" s="6">
         <v>1100</v>
@@ -15837,7 +15838,7 @@
         <v>70</v>
       </c>
       <c r="AC46" s="6">
-        <v>1300</v>
+        <v>710</v>
       </c>
       <c r="AD46" s="6">
         <v>1900</v>
@@ -16068,7 +16069,7 @@
         <v>70</v>
       </c>
       <c r="AC47" s="6">
-        <v>1200</v>
+        <v>610</v>
       </c>
       <c r="AD47" s="6">
         <v>1500</v>
@@ -16299,7 +16300,7 @@
         <v>40</v>
       </c>
       <c r="AC48" s="6">
-        <v>1200</v>
+        <v>610</v>
       </c>
       <c r="AD48" s="6">
         <v>1500</v>
@@ -16530,7 +16531,7 @@
         <v>70</v>
       </c>
       <c r="AC49" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD49" s="6">
         <v>1100</v>
@@ -16759,7 +16760,7 @@
         <v>70</v>
       </c>
       <c r="AC50" s="6">
-        <v>1200</v>
+        <v>610</v>
       </c>
       <c r="AD50" s="6">
         <v>1900</v>
@@ -16990,7 +16991,7 @@
         <v>70</v>
       </c>
       <c r="AC51" s="6">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AD51" s="6">
         <v>1200</v>
@@ -17219,7 +17220,7 @@
         <v>70</v>
       </c>
       <c r="AC52" s="6">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AD52" s="6">
         <v>1500</v>
@@ -17452,7 +17453,7 @@
         <v>70</v>
       </c>
       <c r="AC53" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD53" s="6">
         <v>1100</v>
@@ -17681,7 +17682,7 @@
         <v>70</v>
       </c>
       <c r="AC54" s="6">
-        <v>950</v>
+        <v>290</v>
       </c>
       <c r="AD54" s="6">
         <v>1100</v>
@@ -17912,7 +17913,7 @@
         <v>70</v>
       </c>
       <c r="AC55" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD55" s="6">
         <v>1100</v>
@@ -18143,7 +18144,7 @@
         <v>70</v>
       </c>
       <c r="AC56" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD56" s="6">
         <v>1100</v>
@@ -18372,7 +18373,7 @@
         <v>70</v>
       </c>
       <c r="AC57" s="6">
-        <v>1050</v>
+        <v>590</v>
       </c>
       <c r="AD57" s="6">
         <v>1500</v>
@@ -18603,7 +18604,7 @@
         <v>70</v>
       </c>
       <c r="AC58" s="6">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AD58" s="6">
         <v>1200</v>
@@ -18836,7 +18837,7 @@
         <v>70</v>
       </c>
       <c r="AC59" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD59" s="6">
         <v>1100</v>
@@ -19067,7 +19068,7 @@
         <v>70</v>
       </c>
       <c r="AC60" s="6">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AD60" s="6">
         <v>1100</v>
@@ -19298,7 +19299,7 @@
         <v>70</v>
       </c>
       <c r="AC61" s="6">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AD61" s="6">
         <v>1200</v>
@@ -19529,7 +19530,7 @@
         <v>70</v>
       </c>
       <c r="AC62" s="6">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="AD62" s="6">
         <v>1100</v>
@@ -19758,7 +19759,7 @@
         <v>70</v>
       </c>
       <c r="AC63" s="6">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AD63" s="6">
         <v>1100</v>
@@ -19991,7 +19992,7 @@
         <v>70</v>
       </c>
       <c r="AC64" s="6">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AD64" s="6">
         <v>1900</v>
@@ -20224,7 +20225,7 @@
         <v>70</v>
       </c>
       <c r="AC65" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD65" s="6">
         <v>1500</v>
@@ -20455,7 +20456,7 @@
         <v>70</v>
       </c>
       <c r="AC66" s="6">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AD66" s="6">
         <v>1300</v>
@@ -20686,7 +20687,7 @@
         <v>70</v>
       </c>
       <c r="AC67" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD67" s="6">
         <v>1100</v>
@@ -20915,7 +20916,7 @@
         <v>70</v>
       </c>
       <c r="AC68" s="6">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AD68" s="6">
         <v>1100</v>
@@ -21146,7 +21147,7 @@
         <v>70</v>
       </c>
       <c r="AC69" s="6">
-        <v>1200</v>
+        <v>610</v>
       </c>
       <c r="AD69" s="6">
         <v>1500</v>
@@ -21379,7 +21380,7 @@
         <v>70</v>
       </c>
       <c r="AC70" s="6">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AD70" s="6">
         <v>1300</v>
@@ -21606,7 +21607,7 @@
         <v>70</v>
       </c>
       <c r="AC71" s="6">
-        <v>800</v>
+        <v>260</v>
       </c>
       <c r="AD71" s="6">
         <v>1200</v>
@@ -21819,7 +21820,7 @@
         <v>70</v>
       </c>
       <c r="AC72" s="6">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AD72" s="6">
         <v>300</v>
@@ -23018,7 +23019,7 @@
   <dimension ref="A1:CH72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B3" sqref="B3:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>

--- a/code/excels/building/building_unit_tower.xlsx
+++ b/code/excels/building/building_unit_tower.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1115">
   <si>
     <t>主键</t>
   </si>
@@ -513,2587 +513,2596 @@
     <t>npc\units\building\tower\building_hero_ember_spirit</t>
   </si>
   <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>spirits_2</t>
+  </si>
+  <si>
+    <t>flame_2</t>
+  </si>
+  <si>
+    <t>lina_1</t>
+  </si>
+  <si>
+    <t>lina_2</t>
+  </si>
+  <si>
+    <t>lina_3</t>
+  </si>
+  <si>
+    <t>building_auto_findtreasure</t>
+  </si>
+  <si>
+    <t>ability_tp</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
+  </si>
+  <si>
+    <t>particles/base_attacks/ranged_hero.vpcf</t>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_AGILITY</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
+  </si>
+  <si>
+    <t>npc_dota_creature</t>
+  </si>
+  <si>
+    <t>Hero_EmberSpirit</t>
+  </si>
+  <si>
+    <t>Hero_EmberSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_ember_spirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_ember_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_ember_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+  </si>
+  <si>
+    <t>modifier_ember_spirit_attack_sound</t>
+  </si>
+  <si>
+    <t>models/heroes/ember_spirit/ember_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_lina</t>
+  </si>
+  <si>
+    <t>item_building_hero_lina</t>
+  </si>
+  <si>
+    <t>莉娜</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_lina</t>
+  </si>
+  <si>
+    <t>princess_3</t>
+  </si>
+  <si>
+    <t>fire_1</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_INTELLECT</t>
+  </si>
+  <si>
+    <t>Hero_Lina</t>
+  </si>
+  <si>
+    <t>Hero_Lina.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lina</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_lina.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_lina.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lina/lina.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_axe</t>
+  </si>
+  <si>
+    <t>item_building_hero_axe</t>
+  </si>
+  <si>
+    <t>斧王</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_axe</t>
+  </si>
+  <si>
+    <t>berserker_1</t>
+  </si>
+  <si>
+    <t>madman_1</t>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_STRENGTH</t>
+  </si>
+  <si>
+    <t>Hero_Axe</t>
+  </si>
+  <si>
+    <t>Hero_Axe.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_axe</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_axe.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_axe.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_axe_attack_sound</t>
+  </si>
+  <si>
+    <t>models/heroes/axe/axe.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_tinker</t>
+  </si>
+  <si>
+    <t>item_building_hero_tinker</t>
+  </si>
+  <si>
+    <t>修补匠</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_tinker</t>
+  </si>
+  <si>
+    <t>warframe_1</t>
+  </si>
+  <si>
+    <t>engineer_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_tinker/tinker_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Tinker</t>
+  </si>
+  <si>
+    <t>Hero_Tinker.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_tinker</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_tinker.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_tinker.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/tinker/tinker.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_sniper</t>
+  </si>
+  <si>
+    <t>item_building_hero_sniper</t>
+  </si>
+  <si>
+    <t>狙击手</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_sniper</t>
+  </si>
+  <si>
+    <t>gunner_1</t>
+  </si>
+  <si>
+    <t>dwarf_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_sniper/sniper_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Sniper</t>
+  </si>
+  <si>
+    <t>Hero_Sniper.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_sniper</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_sniper.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_sniper.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_ambient_sniper | modifier_ambient_sniper_attack_speed</t>
+  </si>
+  <si>
+    <t>models/heroes/sniper/sniper.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>风暴之灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>spirits_1</t>
+  </si>
+  <si>
+    <t>storm_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_stormspirit/stormspirit_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_StormSpirit</t>
+  </si>
+  <si>
+    <t>Hero_StormSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_stormspirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_stormspirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_stormspirit.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/storm_spirit/storm_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>item_building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>死亡先知</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>god_2</t>
+  </si>
+  <si>
+    <t>furion_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_death_prophet/death_prophet_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_DeathProphet</t>
+  </si>
+  <si>
+    <t>Hero_DeathProphet.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_death_prophet</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_death_prophet.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_shadowshaman.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/death_prophet/death_prophet.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_luna</t>
+  </si>
+  <si>
+    <t>item_building_hero_luna</t>
+  </si>
+  <si>
+    <t>露娜</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_luna</t>
+  </si>
+  <si>
+    <t>envoy_1</t>
+  </si>
+  <si>
+    <t>moonvalley_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_luna/luna_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Luna</t>
+  </si>
+  <si>
+    <t>Hero_Luna.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_luna</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_luna.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_luna.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/luna/luna.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>item_building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>swordman_1</t>
+  </si>
+  <si>
+    <t>faceles_island_1</t>
+  </si>
+  <si>
+    <t>Hero_Juggernaut</t>
+  </si>
+  <si>
+    <t>Hero_Juggernaut.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_juggernaut</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_juggernaut.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_juggernaut.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_lycan</t>
+  </si>
+  <si>
+    <t>item_building_hero_lycan</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_lycan</t>
+  </si>
+  <si>
+    <t>wolf_1</t>
+  </si>
+  <si>
+    <t>former_1</t>
+  </si>
+  <si>
+    <t>Hero_Lycan</t>
+  </si>
+  <si>
+    <t>Hero_Lycan.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lycan</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_lycan.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_lycan.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lycan/lycan.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>item_building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>剧毒术士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>poison_2</t>
+  </si>
+  <si>
+    <t>warlock_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_venomancer/venomancer_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Venomancer</t>
+  </si>
+  <si>
+    <t>Hero_Venomancer.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_venomancer</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_venomancer.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_venomancer.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/venomancer/venomancer.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>item_building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>干扰者</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>electricity_1</t>
+  </si>
+  <si>
+    <t>warlock_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_disruptor/disruptor_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Disruptor</t>
+  </si>
+  <si>
+    <t>Hero_Disruptor.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_disruptor</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_disruptor.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_disruptor.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/disruptor/disruptor.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>item_building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>混沌骑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>Hero_ChaosKnight</t>
+  </si>
+  <si>
+    <t>Hero_ChaosKnight.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_chaos_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_chaos_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/chaos_knight/chaos_knight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>item_building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>冰霜巨龙</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>dragon_1</t>
+  </si>
+  <si>
+    <t>frostfield_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_winter_wyvern/winter_wyvern_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Winter_Wyvern</t>
+  </si>
+  <si>
+    <t>Hero_Winter_Wyvern.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_winter_wyvern.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_winter_wyvern.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>item_building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>former_2</t>
+  </si>
+  <si>
+    <t>forest_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lone_druid/lone_druid_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_LoneDruid</t>
+  </si>
+  <si>
+    <t>Hero_LoneDruid.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_lone_druid</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_lone_druid.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_lone_druid.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lone_druid/lone_druid.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>item_building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>炼金</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>goblin_1</t>
+  </si>
+  <si>
+    <t>fat_3</t>
+  </si>
+  <si>
+    <t>models/heroes/alchemist/alchemist.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>item_building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>圣堂刺客</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>templar_1</t>
+  </si>
+  <si>
+    <t>assassin_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_templar_assassin/templar_assassin_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_TemplarAssassin</t>
+  </si>
+  <si>
+    <t>Hero_TemplarAssassin.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_templar_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_templar_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/lanaya/lanaya.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_furion</t>
+  </si>
+  <si>
+    <t>item_building_hero_furion</t>
+  </si>
+  <si>
+    <t>先知</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_furion</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>forest_1</t>
+  </si>
+  <si>
+    <t>furion_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_furion/furion_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Furion</t>
+  </si>
+  <si>
+    <t>Hero_Furion.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_furion</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_furion.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_furion.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/furion/furion.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_shredder</t>
+  </si>
+  <si>
+    <t>item_building_hero_shredder</t>
+  </si>
+  <si>
+    <t>伐木机</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_shredder</t>
+  </si>
+  <si>
+    <t>warframe_2</t>
+  </si>
+  <si>
+    <t>madman_2</t>
+  </si>
+  <si>
+    <t>Hero_Shredder</t>
+  </si>
+  <si>
+    <t>Hero_Shredder.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_shredder</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_shredder.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_shredder.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_ambient_shredder</t>
+  </si>
+  <si>
+    <t>models/heroes/shredder/shredder.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_mirana</t>
+  </si>
+  <si>
+    <t>item_building_hero_mirana</t>
+  </si>
+  <si>
+    <t>米拉娜</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_mirana</t>
+  </si>
+  <si>
+    <t>princess_1</t>
+  </si>
+  <si>
+    <t>moonvalley_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_mirana/mirana_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Mirana</t>
+  </si>
+  <si>
+    <t>Hero_Mirana.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_mirana</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_mirana.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_mirana.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/mirana/mirana.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>虚无之灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>spirits_3</t>
+  </si>
+  <si>
+    <t>void_1</t>
+  </si>
+  <si>
+    <t>Hero_VoidSpirit</t>
+  </si>
+  <si>
+    <t>Hero_VoidSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_void_spirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_void_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_void_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/void_spirit/void_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>item_building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>thief_1</t>
+  </si>
+  <si>
+    <t>predator_1</t>
+  </si>
+  <si>
+    <t>Hero_BountyHunter</t>
+  </si>
+  <si>
+    <t>Hero_BountyHunter.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_bounty_hunter.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_bounty_hunter.vsndevts</t>
+  </si>
+  <si>
+    <t>modifier_bounty_hunter_track_bounty</t>
+  </si>
+  <si>
+    <t>models/heroes/bounty_hunter/bounty_hunter.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>item_building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>龙骑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>hostile_1</t>
+  </si>
+  <si>
+    <t>Hero_DragonKnight</t>
+  </si>
+  <si>
+    <t>Hero_DragonKnight.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_dragon_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_dragon_knight.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/dragon_knight/dragon_knight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_slardar</t>
+  </si>
+  <si>
+    <t>item_building_hero_slardar</t>
+  </si>
+  <si>
+    <t>斯拉达</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_slardar</t>
+  </si>
+  <si>
+    <t>guard_1</t>
+  </si>
+  <si>
+    <t>sea_1</t>
+  </si>
+  <si>
+    <t>Hero_Slardar</t>
+  </si>
+  <si>
+    <t>Hero_Slardar.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_slardar</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_slardar.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_slardar.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/slardar/slardar.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_slark</t>
+  </si>
+  <si>
+    <t>item_building_hero_slark</t>
+  </si>
+  <si>
+    <t>斯拉克</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_slark</t>
+  </si>
+  <si>
+    <t>predator_2</t>
+  </si>
+  <si>
+    <t>sea_2</t>
+  </si>
+  <si>
+    <t>Hero_Slark</t>
+  </si>
+  <si>
+    <t>Hero_Slark.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_slark</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_slark.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_slark.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/slark/slark.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_ursa</t>
+  </si>
+  <si>
+    <t>item_building_hero_ursa</t>
+  </si>
+  <si>
+    <t>熊战士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_ursa</t>
+  </si>
+  <si>
+    <t>bearman_1</t>
+  </si>
+  <si>
+    <t>Hero_Ursa</t>
+  </si>
+  <si>
+    <t>Hero_Ursa.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_ursa</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_ursa.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_ursa.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/ursa/ursa.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>item_building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>水晶室女</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>princess_2</t>
+  </si>
+  <si>
+    <t>frostfield_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_crystalmaiden/maiden_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>hero_Crystal</t>
+  </si>
+  <si>
+    <t>Hero_CrystalMaiden.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_crystalmaiden</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_crystalmaiden.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_crystalmaiden.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/crystal_maiden/crystal_maiden.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>item_building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>食人魔魔法师</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>fat_1</t>
+  </si>
+  <si>
+    <t>Hero_OgreMagi</t>
+  </si>
+  <si>
+    <t>Hero_OgreMagi.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_ogre_magi.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_ogre_magi.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/ogre_magi/ogre_magi.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_sven</t>
+  </si>
+  <si>
+    <t>item_building_hero_sven</t>
+  </si>
+  <si>
+    <t>斯文</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_sven</t>
+  </si>
+  <si>
+    <t>warrior_1</t>
+  </si>
+  <si>
+    <t>faceles_island_2</t>
+  </si>
+  <si>
+    <t>Hero_Sven</t>
+  </si>
+  <si>
+    <t>Hero_Sven.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_sven</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_sven.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_sven.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/sven/sven.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_medusa</t>
+  </si>
+  <si>
+    <t>item_building_hero_medusa</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_medusa</t>
+  </si>
+  <si>
+    <t>gunner_2</t>
+  </si>
+  <si>
+    <t>snake_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_medusa/medusa_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Medusa</t>
+  </si>
+  <si>
+    <t>Hero_Medusa.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_medusa</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_medusa.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_medusa.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/medusa/medusa.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>item_building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>拉希克</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_leshrac/leshrac_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Leshrac</t>
+  </si>
+  <si>
+    <t>Hero_Leshrac.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_leshrac</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_leshrac.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_leshrac.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/leshrac/leshrac.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_centaur</t>
+  </si>
+  <si>
+    <t>item_building_hero_centaur</t>
+  </si>
+  <si>
+    <t>半人马战行者</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_centaur</t>
+  </si>
+  <si>
+    <t>centaur_1</t>
+  </si>
+  <si>
+    <t>Hero_Centaur</t>
+  </si>
+  <si>
+    <t>Hero_Centaur.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_centaur</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_centaur.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_centaur.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/centaur/centaur.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_zuus</t>
+  </si>
+  <si>
+    <t>item_building_hero_zuus</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_zuus</t>
+  </si>
+  <si>
+    <t>god_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_zuus/zuus_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_zuus</t>
+  </si>
+  <si>
+    <t>Hero_zuus.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_zuus</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_zuus.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_zuus.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/zeus/zeus.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_huskar</t>
+  </si>
+  <si>
+    <t>item_building_hero_huskar</t>
+  </si>
+  <si>
+    <t>神灵武士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_huskar</t>
+  </si>
+  <si>
+    <t>warrior_2</t>
+  </si>
+  <si>
+    <t>fire_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_huskar/huskar_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Huskar</t>
+  </si>
+  <si>
+    <t>Hero_Huskar.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_huskar</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_huskar.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_huskar.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/huskar/huskar.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_viper</t>
+  </si>
+  <si>
+    <t>item_building_hero_viper</t>
+  </si>
+  <si>
+    <t>冥界亚龙</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_viper</t>
+  </si>
+  <si>
+    <t>snake_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_viper/viper_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Viper</t>
+  </si>
+  <si>
+    <t>Hero_Viper.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_viper</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_viper.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_viper.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/viper/viper.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>item_building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>大地之灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>spirits_4</t>
+  </si>
+  <si>
+    <t>earth_1</t>
+  </si>
+  <si>
+    <t>Hero_EarthSpirit</t>
+  </si>
+  <si>
+    <t>Hero_EarthSpirit.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_earth_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_earth_spirit.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/earth_spirit/earth_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>item_building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>全能骑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>utopia_1</t>
+  </si>
+  <si>
+    <t>templar_2</t>
+  </si>
+  <si>
+    <t>Hero_Omniknight</t>
+  </si>
+  <si>
+    <t>Hero_Omniknight.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_omniknight</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_omniknight.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_omniknight.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/omniknight/omniknight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>item_building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>矮人直升机</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>dwarf_1</t>
+  </si>
+  <si>
+    <t>engineer_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_gyrocopter/gyro_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Gyrocopter</t>
+  </si>
+  <si>
+    <t>Hero_Gyrocopter.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_gyrocopter.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_gyrocopter.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/gyro/gyro.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>item_building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>幻影刺客</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>assassin_2</t>
+  </si>
+  <si>
+    <t>Hero_PhantomAssassin</t>
+  </si>
+  <si>
+    <t>Hero_PhantomAssassin.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_phantom_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_phantom_assassin.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_pugna</t>
+  </si>
+  <si>
+    <t>item_building_hero_pugna</t>
+  </si>
+  <si>
+    <t>帕格纳</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_pugna</t>
+  </si>
+  <si>
+    <t>nether_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_pugna/pugna_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Hero_Pugna</t>
+  </si>
+  <si>
+    <t>Hero_Pugna.Pick</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_pugna.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_pugna.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/pugna/pugna.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>item_building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>熊灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_spirit_bear</t>
+  </si>
+  <si>
+    <t>models/heroes/lone_druid/spirit_bear.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>item_building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>石鳞剑士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>swordman_2</t>
+  </si>
+  <si>
+    <t>utopia_2</t>
+  </si>
+  <si>
+    <t>tower_tp</t>
+  </si>
+  <si>
+    <t>Hero_Pangolier</t>
+  </si>
+  <si>
+    <t>Hero_Pangolier.Pick</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_pangolier</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_pangolier.vsndevts</t>
+  </si>
+  <si>
+    <t>soundevents/voscripts/game_sounds_vo_pangolin.vsndevts</t>
+  </si>
+  <si>
+    <t>models/heroes/pangolier/pangolier.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t01</t>
+  </si>
+  <si>
+    <t>item_building_hero_t01</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t01</t>
+  </si>
+  <si>
+    <t>dire_1</t>
+  </si>
+  <si>
+    <t>Creep_Bad_Melee</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_creeps.vsndevts</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t02</t>
+  </si>
+  <si>
+    <t>item_building_hero_t02</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t02</t>
+  </si>
+  <si>
+    <t>dire_2</t>
+  </si>
+  <si>
+    <t>particles/base_attacks/ranged_badguy.vpcf</t>
+  </si>
+  <si>
+    <t>Creep_Bad_Range</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_ranged/lane_dire_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t03</t>
+  </si>
+  <si>
+    <t>item_building_hero_t03</t>
+  </si>
+  <si>
+    <t>狂暴枭兽</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t03</t>
+  </si>
+  <si>
+    <t>animal_1</t>
+  </si>
+  <si>
+    <t>particles/econ/items/keeper_of_the_light/kotl_weapon_arcane_staff/keeper_base_attack_arcane_staff.vpcf</t>
+  </si>
+  <si>
+    <t>n_creep_Ranged</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_vulture_a/n_creep_vulture_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t04</t>
+  </si>
+  <si>
+    <t>item_building_hero_t04</t>
+  </si>
+  <si>
+    <t>死灵幽魂</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t04</t>
+  </si>
+  <si>
+    <t>soul_1</t>
+  </si>
+  <si>
+    <t>particles/neutral_fx/ghost_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_ranged_diretide/creep_radiant_ranged_diretide.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t05</t>
+  </si>
+  <si>
+    <t>item_building_hero_t05</t>
+  </si>
+  <si>
+    <t>天辉近战兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t05</t>
+  </si>
+  <si>
+    <t>radiant_1</t>
+  </si>
+  <si>
+    <t>Creep_Good_Melee</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_melee/radiant_melee.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t06</t>
+  </si>
+  <si>
+    <t>item_building_hero_t06</t>
+  </si>
+  <si>
+    <t>天辉远程兵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t06</t>
+  </si>
+  <si>
+    <t>radiant_2</t>
+  </si>
+  <si>
+    <t>particles/base_attacks/ranged_goodguy.vpcf</t>
+  </si>
+  <si>
+    <t>Creep_Good_Range</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_ranged/radiant_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t07</t>
+  </si>
+  <si>
+    <t>item_building_hero_t07</t>
+  </si>
+  <si>
+    <t>萨特·地狱使者</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t07</t>
+  </si>
+  <si>
+    <t>envoy_2</t>
+  </si>
+  <si>
+    <t>n_creep_Melee</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_a/n_creep_satyr_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t08</t>
+  </si>
+  <si>
+    <t>item_building_hero_t08</t>
+  </si>
+  <si>
+    <t>风暴巫师</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t08</t>
+  </si>
+  <si>
+    <t>electricity_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_harpy_b/n_creep_harpy_b.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t10</t>
+  </si>
+  <si>
+    <t>item_building_hero_t10</t>
+  </si>
+  <si>
+    <t>半人马酋长</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t10</t>
+  </si>
+  <si>
+    <t>berserker_2</t>
+  </si>
+  <si>
+    <t>centaur_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_centaur_lrg/n_creep_centaur_lrg.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t11</t>
+  </si>
+  <si>
+    <t>item_building_hero_t11</t>
+  </si>
+  <si>
+    <t>黑暗巨魔萨满</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t11</t>
+  </si>
+  <si>
+    <t>poison_1</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_troll_dark_b/n_creep_troll_dark_b.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t12</t>
+  </si>
+  <si>
+    <t>item_building_hero_t12</t>
+  </si>
+  <si>
+    <t>食人魔棒槌手</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t12</t>
+  </si>
+  <si>
+    <t>fat_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_ogre_med/n_creep_ogre_med.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t15</t>
+  </si>
+  <si>
+    <t>item_building_hero_t15</t>
+  </si>
+  <si>
+    <t>狗头人奴隶主</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t15</t>
+  </si>
+  <si>
+    <t>thief_2</t>
+  </si>
+  <si>
+    <t>goblin_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_a/n_creep_kobold_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t16</t>
+  </si>
+  <si>
+    <t>item_building_hero_t16</t>
+  </si>
+  <si>
+    <t>雷肤兽</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t16</t>
+  </si>
+  <si>
+    <t>animal_2</t>
+  </si>
+  <si>
+    <t>particles/neutral_fx/thunderlizard_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_thunder_lizard/n_creep_thunder_lizard_big.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t17</t>
+  </si>
+  <si>
+    <t>item_building_hero_t17</t>
+  </si>
+  <si>
+    <t>森林巨魔巫师</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t17</t>
+  </si>
+  <si>
+    <t>troll_1</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_forest_trolls/n_creep_forest_troll_high_priest.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t19</t>
+  </si>
+  <si>
+    <t>item_building_hero_t19</t>
+  </si>
+  <si>
+    <t>狂暴熊怪</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t19</t>
+  </si>
+  <si>
+    <t>guard_3</t>
+  </si>
+  <si>
+    <t>bearman_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_furbolg/n_creep_furbolg_disrupter.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t21</t>
+  </si>
+  <si>
+    <t>item_building_hero_t21</t>
+  </si>
+  <si>
+    <t>虚灵守卫</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t21</t>
+  </si>
+  <si>
+    <t>guard_2</t>
+  </si>
+  <si>
+    <t>nether_2</t>
+  </si>
+  <si>
+    <t>models/items/pugna/ward/draining_wight/draining_wight.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t22</t>
+  </si>
+  <si>
+    <t>item_building_hero_t22</t>
+  </si>
+  <si>
+    <t>魔火精灵</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t22</t>
+  </si>
+  <si>
+    <t>puppet_1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_invoker/invoker_forged_spirit_projectile.vpcf</t>
+  </si>
+  <si>
+    <t>models/heroes/invoker/forge_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t23</t>
+  </si>
+  <si>
+    <t>item_building_hero_t23</t>
+  </si>
+  <si>
+    <t>恐怖之狼</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t23</t>
+  </si>
+  <si>
+    <t>wolf_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_worg_large/n_creep_worg_large.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t25</t>
+  </si>
+  <si>
+    <t>item_building_hero_t25</t>
+  </si>
+  <si>
+    <t>恶魔之魂</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t25</t>
+  </si>
+  <si>
+    <t>soul_2</t>
+  </si>
+  <si>
+    <t>models/items/invoker/forge_spirit/frostivus2018_invoker_keeper_of_magic_spirit/frostivus2018_invoker_keeper_of_magic_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t27</t>
+  </si>
+  <si>
+    <t>item_building_hero_t27</t>
+  </si>
+  <si>
+    <t>风元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t27</t>
+  </si>
+  <si>
+    <t>elements_1</t>
+  </si>
+  <si>
+    <t>storm_2</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_brewmaster/brewmaster_storm_attack.vpcf</t>
+  </si>
+  <si>
+    <t>Brewmaster_Storm</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_windspirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t28</t>
+  </si>
+  <si>
+    <t>item_building_hero_t28</t>
+  </si>
+  <si>
+    <t>土元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t28</t>
+  </si>
+  <si>
+    <t>elements_2</t>
+  </si>
+  <si>
+    <t>earth_2</t>
+  </si>
+  <si>
+    <t>Brewmaster_Earth</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_earthspirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t29</t>
+  </si>
+  <si>
+    <t>item_building_hero_t29</t>
+  </si>
+  <si>
+    <t>火元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t29</t>
+  </si>
+  <si>
+    <t>elements_3</t>
+  </si>
+  <si>
+    <t>flame_1</t>
+  </si>
+  <si>
+    <t>Brewmaster_Fire</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_firespirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t34</t>
+  </si>
+  <si>
+    <t>item_building_hero_t34</t>
+  </si>
+  <si>
+    <t>花岗石傀儡</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t34</t>
+  </si>
+  <si>
+    <t>puppet_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_golem_a/neutral_creep_golem_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t35</t>
+  </si>
+  <si>
+    <t>item_building_hero_t35</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t35</t>
+  </si>
+  <si>
+    <t>hellfire_1</t>
+  </si>
+  <si>
+    <t>Hero_WarlockGolem</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_heroes/game_sounds_warlock.vsndevts</t>
+  </si>
+  <si>
+    <t>models/items/warlock/golem/hellsworn_golem/hellsworn_golem.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t36</t>
+  </si>
+  <si>
+    <t>item_building_hero_t36</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t36</t>
+  </si>
+  <si>
+    <t>hostile_2</t>
+  </si>
+  <si>
+    <t>dragon_2</t>
+  </si>
+  <si>
+    <t>particles/neutral_fx/black_dragon_attack.vpcf</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t37</t>
+  </si>
+  <si>
+    <t>item_building_hero_t37</t>
+  </si>
+  <si>
+    <t>虚无元素使</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t37</t>
+  </si>
+  <si>
+    <t>elements_4</t>
+  </si>
+  <si>
+    <t>void_2</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_voidspirit.vmdl</t>
+  </si>
+  <si>
+    <t>building_hero_t41</t>
+  </si>
+  <si>
+    <t>item_building_hero_t41</t>
+  </si>
+  <si>
+    <t>巨魔勇士</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_hero_t41</t>
+  </si>
+  <si>
+    <t>troll_2</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_troll_dark_a/n_creep_troll_dark_a.vmdl</t>
+  </si>
+  <si>
+    <t>building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>item_building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>芒果树</t>
+  </si>
+  <si>
+    <t>npc\units\building\tower\building_unit_mango_tree</t>
+  </si>
+  <si>
+    <t>models/props_tree/mango_tree.vmdl</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>building_unit_tower</t>
+  </si>
+  <si>
+    <t>Creature</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>2&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>3&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>4&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>5&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>6&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>7&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>8&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>9&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>10&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
     <t>SSR</t>
   </si>
   <si>
-    <t>spirits_2</t>
-  </si>
-  <si>
-    <t>flame_2</t>
-  </si>
-  <si>
-    <t>lina_1</t>
-  </si>
-  <si>
-    <t>lina_2</t>
-  </si>
-  <si>
-    <t>lina_3</t>
-  </si>
-  <si>
-    <t>building_auto_findtreasure</t>
-  </si>
-  <si>
-    <t>ability_tp</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
-  </si>
-  <si>
-    <t>particles/base_attacks/ranged_hero.vpcf</t>
-  </si>
-  <si>
-    <t>DOTA_ATTRIBUTE_AGILITY</t>
-  </si>
-  <si>
-    <t>HERO</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
-  </si>
-  <si>
-    <t>npc_dota_creature</t>
-  </si>
-  <si>
-    <t>Hero_EmberSpirit</t>
-  </si>
-  <si>
-    <t>Hero_EmberSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_ember_spirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_ember_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_ember_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
-  </si>
-  <si>
-    <t>modifier_ember_spirit_attack_sound</t>
-  </si>
-  <si>
-    <t>models/heroes/ember_spirit/ember_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_lina</t>
-  </si>
-  <si>
-    <t>item_building_hero_lina</t>
-  </si>
-  <si>
-    <t>莉娜</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_lina</t>
-  </si>
-  <si>
-    <t>princess_3</t>
-  </si>
-  <si>
-    <t>fire_1</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lina/lina_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>DOTA_ATTRIBUTE_INTELLECT</t>
-  </si>
-  <si>
-    <t>Hero_Lina</t>
-  </si>
-  <si>
-    <t>Hero_Lina.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lina</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_lina.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_lina.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lina/lina.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_axe</t>
-  </si>
-  <si>
-    <t>item_building_hero_axe</t>
-  </si>
-  <si>
-    <t>斧王</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_axe</t>
-  </si>
-  <si>
-    <t>berserker_1</t>
-  </si>
-  <si>
-    <t>madman_1</t>
-  </si>
-  <si>
-    <t>DOTA_ATTRIBUTE_STRENGTH</t>
-  </si>
-  <si>
-    <t>Hero_Axe</t>
-  </si>
-  <si>
-    <t>Hero_Axe.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_axe</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_axe.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_axe.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_axe_attack_sound</t>
-  </si>
-  <si>
-    <t>models/heroes/axe/axe.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_tinker</t>
-  </si>
-  <si>
-    <t>item_building_hero_tinker</t>
-  </si>
-  <si>
-    <t>修补匠</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_tinker</t>
-  </si>
-  <si>
-    <t>warframe_1</t>
-  </si>
-  <si>
-    <t>engineer_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_tinker/tinker_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Tinker</t>
-  </si>
-  <si>
-    <t>Hero_Tinker.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_tinker</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_tinker.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_tinker.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/tinker/tinker.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_sniper</t>
-  </si>
-  <si>
-    <t>item_building_hero_sniper</t>
-  </si>
-  <si>
-    <t>狙击手</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_sniper</t>
-  </si>
-  <si>
-    <t>gunner_1</t>
-  </si>
-  <si>
-    <t>dwarf_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_sniper/sniper_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Sniper</t>
-  </si>
-  <si>
-    <t>Hero_Sniper.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_sniper</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_sniper.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_sniper.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_ambient_sniper | modifier_ambient_sniper_attack_speed</t>
-  </si>
-  <si>
-    <t>models/heroes/sniper/sniper.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>风暴之灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>spirits_1</t>
-  </si>
-  <si>
-    <t>storm_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_stormspirit/stormspirit_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_StormSpirit</t>
-  </si>
-  <si>
-    <t>Hero_StormSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_stormspirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_stormspirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_stormspirit.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/storm_spirit/storm_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>item_building_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>死亡先知</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>god_2</t>
-  </si>
-  <si>
-    <t>furion_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_death_prophet/death_prophet_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_DeathProphet</t>
-  </si>
-  <si>
-    <t>Hero_DeathProphet.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_death_prophet</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_death_prophet.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_shadowshaman.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/death_prophet/death_prophet.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_luna</t>
-  </si>
-  <si>
-    <t>item_building_hero_luna</t>
-  </si>
-  <si>
-    <t>露娜</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_luna</t>
-  </si>
-  <si>
-    <t>envoy_1</t>
-  </si>
-  <si>
-    <t>moonvalley_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_luna/luna_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Luna</t>
-  </si>
-  <si>
-    <t>Hero_Luna.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_luna</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_luna.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_luna.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/luna/luna.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>item_building_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>主宰</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_juggernaut</t>
-  </si>
-  <si>
-    <t>swordman_1</t>
-  </si>
-  <si>
-    <t>faceles_island_1</t>
-  </si>
-  <si>
-    <t>Hero_Juggernaut</t>
-  </si>
-  <si>
-    <t>Hero_Juggernaut.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_juggernaut</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_juggernaut.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_juggernaut.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/juggernaut/juggernaut.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_lycan</t>
-  </si>
-  <si>
-    <t>item_building_hero_lycan</t>
-  </si>
-  <si>
-    <t>狼人</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_lycan</t>
-  </si>
-  <si>
-    <t>wolf_1</t>
-  </si>
-  <si>
-    <t>former_1</t>
-  </si>
-  <si>
-    <t>Hero_Lycan</t>
-  </si>
-  <si>
-    <t>Hero_Lycan.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lycan</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_lycan.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_lycan.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lycan/lycan.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>item_building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>剧毒术士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>poison_2</t>
-  </si>
-  <si>
-    <t>warlock_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_venomancer/venomancer_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Venomancer</t>
-  </si>
-  <si>
-    <t>Hero_Venomancer.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_venomancer</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_venomancer.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_venomancer.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/venomancer/venomancer.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_disruptor</t>
-  </si>
-  <si>
-    <t>item_building_hero_disruptor</t>
-  </si>
-  <si>
-    <t>干扰者</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_disruptor</t>
-  </si>
-  <si>
-    <t>electricity_1</t>
-  </si>
-  <si>
-    <t>warlock_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_disruptor/disruptor_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Disruptor</t>
-  </si>
-  <si>
-    <t>Hero_Disruptor.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_disruptor</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_disruptor.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_disruptor.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/disruptor/disruptor.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>item_building_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>混沌骑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>Hero_ChaosKnight</t>
-  </si>
-  <si>
-    <t>Hero_ChaosKnight.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_chaos_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_chaos_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/chaos_knight/chaos_knight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>item_building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>冰霜巨龙</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>dragon_1</t>
-  </si>
-  <si>
-    <t>frostfield_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_winter_wyvern/winter_wyvern_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Winter_Wyvern</t>
-  </si>
-  <si>
-    <t>Hero_Winter_Wyvern.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_winter_wyvern.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_winter_wyvern.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/winterwyvern/winterwyvern.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>item_building_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>former_2</t>
-  </si>
-  <si>
-    <t>forest_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lone_druid/lone_druid_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_LoneDruid</t>
-  </si>
-  <si>
-    <t>Hero_LoneDruid.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_lone_druid</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_lone_druid.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_lone_druid.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lone_druid/lone_druid.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_alchemist</t>
-  </si>
-  <si>
-    <t>item_building_hero_alchemist</t>
-  </si>
-  <si>
-    <t>炼金</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_alchemist</t>
-  </si>
-  <si>
-    <t>goblin_1</t>
-  </si>
-  <si>
-    <t>fat_3</t>
-  </si>
-  <si>
-    <t>models/heroes/alchemist/alchemist.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>item_building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>圣堂刺客</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>templar_1</t>
-  </si>
-  <si>
-    <t>assassin_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_templar_assassin/templar_assassin_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_TemplarAssassin</t>
-  </si>
-  <si>
-    <t>Hero_TemplarAssassin.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_templar_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_templar_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/lanaya/lanaya.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_furion</t>
-  </si>
-  <si>
-    <t>item_building_hero_furion</t>
-  </si>
-  <si>
-    <t>先知</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_furion</t>
+    <t>ember_spirit_1</t>
+  </si>
+  <si>
+    <t>ember_spirit_2</t>
+  </si>
+  <si>
+    <t>ember_spirit_3</t>
+  </si>
+  <si>
+    <t>ability_empty</t>
+  </si>
+  <si>
+    <t>empty_4</t>
+  </si>
+  <si>
+    <t>axe_1</t>
+  </si>
+  <si>
+    <t>axe_2</t>
+  </si>
+  <si>
+    <t>axe_3</t>
+  </si>
+  <si>
+    <t>tinker_1</t>
+  </si>
+  <si>
+    <t>tinker_2</t>
+  </si>
+  <si>
+    <t>tinker_3</t>
+  </si>
+  <si>
+    <t>tinker_4</t>
+  </si>
+  <si>
+    <t>sniper_1</t>
+  </si>
+  <si>
+    <t>sniper_2</t>
+  </si>
+  <si>
+    <t>sniper_3</t>
+  </si>
+  <si>
+    <t>storm_spirit_1</t>
+  </si>
+  <si>
+    <t>storm_spirit_2</t>
+  </si>
+  <si>
+    <t>storm_spirit_3</t>
+  </si>
+  <si>
+    <t>death_prophet_1</t>
+  </si>
+  <si>
+    <t>death_prophet_2</t>
+  </si>
+  <si>
+    <t>death_prophet_3</t>
+  </si>
+  <si>
+    <t>luna_1</t>
+  </si>
+  <si>
+    <t>luna_2</t>
+  </si>
+  <si>
+    <t>luna_3</t>
+  </si>
+  <si>
+    <t>juggernaut_1</t>
+  </si>
+  <si>
+    <t>juggernaut_2</t>
+  </si>
+  <si>
+    <t>juggernaut_3</t>
+  </si>
+  <si>
+    <t>juggernaut_4</t>
+  </si>
+  <si>
+    <t>lycan_1</t>
+  </si>
+  <si>
+    <t>lycan_2</t>
+  </si>
+  <si>
+    <t>lycan_3</t>
+  </si>
+  <si>
+    <t>venomancer_1</t>
+  </si>
+  <si>
+    <t>venomancer_2</t>
+  </si>
+  <si>
+    <t>venomancer_3</t>
+  </si>
+  <si>
+    <t>disruptor_1</t>
+  </si>
+  <si>
+    <t>disruptor_2</t>
+  </si>
+  <si>
+    <t>disruptor_3</t>
+  </si>
+  <si>
+    <t>chaos_knight_1</t>
+  </si>
+  <si>
+    <t>chaos_knight_2</t>
+  </si>
+  <si>
+    <t>chaos_knight_3</t>
+  </si>
+  <si>
+    <t>common_six_star</t>
+  </si>
+  <si>
+    <t>winter_wyvern_1</t>
+  </si>
+  <si>
+    <t>winter_wyvern_2</t>
+  </si>
+  <si>
+    <t>winter_wyvern_3</t>
+  </si>
+  <si>
+    <t>winter_wyvern_4</t>
+  </si>
+  <si>
+    <t>lone_druid_1</t>
+  </si>
+  <si>
+    <t>lone_druid_2</t>
+  </si>
+  <si>
+    <t>lone_druid_3</t>
+  </si>
+  <si>
+    <t>alchemist_1</t>
+  </si>
+  <si>
+    <t>alchemist_2</t>
+  </si>
+  <si>
+    <t>alchemist_3</t>
+  </si>
+  <si>
+    <t>alchemist_4</t>
+  </si>
+  <si>
+    <t>templar_assassin_1</t>
+  </si>
+  <si>
+    <t>templar_assassin_2</t>
+  </si>
+  <si>
+    <t>templar_assassin_3</t>
   </si>
   <si>
     <t>SR</t>
   </si>
   <si>
-    <t>forest_1</t>
-  </si>
-  <si>
-    <t>furion_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_furion/furion_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Furion</t>
-  </si>
-  <si>
-    <t>Hero_Furion.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_furion</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_furion.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_furion.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/furion/furion.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_shredder</t>
-  </si>
-  <si>
-    <t>item_building_hero_shredder</t>
-  </si>
-  <si>
-    <t>伐木机</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_shredder</t>
-  </si>
-  <si>
-    <t>warframe_2</t>
-  </si>
-  <si>
-    <t>madman_2</t>
-  </si>
-  <si>
-    <t>Hero_Shredder</t>
-  </si>
-  <si>
-    <t>Hero_Shredder.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_shredder</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_shredder.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_shredder.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_ambient_shredder</t>
-  </si>
-  <si>
-    <t>models/heroes/shredder/shredder.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_mirana</t>
-  </si>
-  <si>
-    <t>item_building_hero_mirana</t>
-  </si>
-  <si>
-    <t>米拉娜</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_mirana</t>
-  </si>
-  <si>
-    <t>princess_1</t>
-  </si>
-  <si>
-    <t>moonvalley_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_mirana/mirana_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Mirana</t>
-  </si>
-  <si>
-    <t>Hero_Mirana.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_mirana</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_mirana.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_mirana.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/mirana/mirana.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>虚无之灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>spirits_3</t>
-  </si>
-  <si>
-    <t>void_1</t>
-  </si>
-  <si>
-    <t>Hero_VoidSpirit</t>
-  </si>
-  <si>
-    <t>Hero_VoidSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_void_spirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_void_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_void_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/void_spirit/void_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>item_building_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>赏金猎人</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>thief_1</t>
-  </si>
-  <si>
-    <t>predator_1</t>
-  </si>
-  <si>
-    <t>Hero_BountyHunter</t>
-  </si>
-  <si>
-    <t>Hero_BountyHunter.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_bounty_hunter.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_bounty_hunter.vsndevts</t>
-  </si>
-  <si>
-    <t>modifier_bounty_hunter_track_bounty</t>
-  </si>
-  <si>
-    <t>models/heroes/bounty_hunter/bounty_hunter.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>item_building_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>龙骑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>hostile_1</t>
-  </si>
-  <si>
-    <t>Hero_DragonKnight</t>
-  </si>
-  <si>
-    <t>Hero_DragonKnight.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_dragon_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_dragon_knight.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/dragon_knight/dragon_knight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_slardar</t>
-  </si>
-  <si>
-    <t>item_building_hero_slardar</t>
-  </si>
-  <si>
-    <t>斯拉达</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_slardar</t>
-  </si>
-  <si>
-    <t>guard_1</t>
-  </si>
-  <si>
-    <t>sea_1</t>
-  </si>
-  <si>
-    <t>Hero_Slardar</t>
-  </si>
-  <si>
-    <t>Hero_Slardar.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_slardar</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_slardar.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_slardar.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/slardar/slardar.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_slark</t>
-  </si>
-  <si>
-    <t>item_building_hero_slark</t>
-  </si>
-  <si>
-    <t>斯拉克</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_slark</t>
-  </si>
-  <si>
-    <t>predator_2</t>
-  </si>
-  <si>
-    <t>sea_2</t>
-  </si>
-  <si>
-    <t>Hero_Slark</t>
-  </si>
-  <si>
-    <t>Hero_Slark.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_slark</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_slark.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_slark.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/slark/slark.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_ursa</t>
-  </si>
-  <si>
-    <t>item_building_hero_ursa</t>
-  </si>
-  <si>
-    <t>熊战士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_ursa</t>
-  </si>
-  <si>
-    <t>bearman_1</t>
-  </si>
-  <si>
-    <t>Hero_Ursa</t>
-  </si>
-  <si>
-    <t>Hero_Ursa.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_ursa</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_ursa.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_ursa.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/ursa/ursa.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>item_building_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>水晶室女</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>princess_2</t>
-  </si>
-  <si>
-    <t>frostfield_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_crystalmaiden/maiden_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>hero_Crystal</t>
-  </si>
-  <si>
-    <t>Hero_CrystalMaiden.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_crystalmaiden</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_crystalmaiden.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_crystalmaiden.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/crystal_maiden/crystal_maiden.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>item_building_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>食人魔魔法师</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>fat_1</t>
-  </si>
-  <si>
-    <t>Hero_OgreMagi</t>
-  </si>
-  <si>
-    <t>Hero_OgreMagi.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_ogre_magi.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_ogre_magi.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/ogre_magi/ogre_magi.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_sven</t>
-  </si>
-  <si>
-    <t>item_building_hero_sven</t>
-  </si>
-  <si>
-    <t>斯文</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_sven</t>
-  </si>
-  <si>
-    <t>warrior_1</t>
-  </si>
-  <si>
-    <t>faceles_island_2</t>
-  </si>
-  <si>
-    <t>Hero_Sven</t>
-  </si>
-  <si>
-    <t>Hero_Sven.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_sven</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_sven.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_sven.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/sven/sven.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_medusa</t>
-  </si>
-  <si>
-    <t>item_building_hero_medusa</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_medusa</t>
-  </si>
-  <si>
-    <t>gunner_2</t>
-  </si>
-  <si>
-    <t>snake_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_medusa/medusa_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Medusa</t>
-  </si>
-  <si>
-    <t>Hero_Medusa.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_medusa</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_medusa.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_medusa.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/medusa/medusa.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_leshrac</t>
-  </si>
-  <si>
-    <t>item_building_hero_leshrac</t>
-  </si>
-  <si>
-    <t>拉希克</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_leshrac</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_leshrac/leshrac_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Leshrac</t>
-  </si>
-  <si>
-    <t>Hero_Leshrac.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_leshrac</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_leshrac.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_leshrac.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/leshrac/leshrac.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_centaur</t>
-  </si>
-  <si>
-    <t>item_building_hero_centaur</t>
-  </si>
-  <si>
-    <t>半人马战行者</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_centaur</t>
-  </si>
-  <si>
-    <t>centaur_1</t>
-  </si>
-  <si>
-    <t>Hero_Centaur</t>
-  </si>
-  <si>
-    <t>Hero_Centaur.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_centaur</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_centaur.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_centaur.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/centaur/centaur.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_zuus</t>
-  </si>
-  <si>
-    <t>item_building_hero_zuus</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_zuus</t>
-  </si>
-  <si>
-    <t>god_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_zuus/zuus_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_zuus</t>
-  </si>
-  <si>
-    <t>Hero_zuus.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_zuus</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_zuus.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_zuus.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/zeus/zeus.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_huskar</t>
-  </si>
-  <si>
-    <t>item_building_hero_huskar</t>
-  </si>
-  <si>
-    <t>神灵武士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_huskar</t>
-  </si>
-  <si>
-    <t>warrior_2</t>
-  </si>
-  <si>
-    <t>fire_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_huskar/huskar_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Huskar</t>
-  </si>
-  <si>
-    <t>Hero_Huskar.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_huskar</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_huskar.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_huskar.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/huskar/huskar.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_viper</t>
-  </si>
-  <si>
-    <t>item_building_hero_viper</t>
-  </si>
-  <si>
-    <t>冥界亚龙</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_viper</t>
-  </si>
-  <si>
-    <t>snake_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_viper/viper_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Viper</t>
-  </si>
-  <si>
-    <t>Hero_Viper.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_viper</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_viper.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_viper.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/viper/viper.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>item_building_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>大地之灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>spirits_4</t>
-  </si>
-  <si>
-    <t>earth_1</t>
-  </si>
-  <si>
-    <t>Hero_EarthSpirit</t>
-  </si>
-  <si>
-    <t>Hero_EarthSpirit.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_earth_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_earth_spirit.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/earth_spirit/earth_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_omniknight</t>
-  </si>
-  <si>
-    <t>item_building_hero_omniknight</t>
-  </si>
-  <si>
-    <t>全能骑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_omniknight</t>
-  </si>
-  <si>
-    <t>utopia_1</t>
-  </si>
-  <si>
-    <t>templar_2</t>
-  </si>
-  <si>
-    <t>Hero_Omniknight</t>
-  </si>
-  <si>
-    <t>Hero_Omniknight.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_omniknight</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_omniknight.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_omniknight.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/omniknight/omniknight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>item_building_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>矮人直升机</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>dwarf_1</t>
-  </si>
-  <si>
-    <t>engineer_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_gyrocopter/gyro_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Gyrocopter</t>
-  </si>
-  <si>
-    <t>Hero_Gyrocopter.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_gyrocopter.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_gyrocopter.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/gyro/gyro.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>item_building_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>幻影刺客</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>assassin_2</t>
-  </si>
-  <si>
-    <t>Hero_PhantomAssassin</t>
-  </si>
-  <si>
-    <t>Hero_PhantomAssassin.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_phantom_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_phantom_assassin.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/phantom_assassin/phantom_assassin.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_pugna</t>
-  </si>
-  <si>
-    <t>item_building_hero_pugna</t>
-  </si>
-  <si>
-    <t>帕格纳</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_pugna</t>
-  </si>
-  <si>
-    <t>nether_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_pugna/pugna_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Hero_Pugna</t>
-  </si>
-  <si>
-    <t>Hero_Pugna.Pick</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_pugna.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_pugna.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/pugna/pugna.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>item_building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>熊灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_spirit_bear</t>
-  </si>
-  <si>
-    <t>models/heroes/lone_druid/spirit_bear.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_pangolier</t>
-  </si>
-  <si>
-    <t>item_building_hero_pangolier</t>
-  </si>
-  <si>
-    <t>石鳞剑士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_pangolier</t>
+    <t>furion_3</t>
+  </si>
+  <si>
+    <t>shredder_1</t>
+  </si>
+  <si>
+    <t>shredder_2</t>
+  </si>
+  <si>
+    <t>shredder_3</t>
+  </si>
+  <si>
+    <t>mirana_1</t>
+  </si>
+  <si>
+    <t>mirana_2</t>
+  </si>
+  <si>
+    <t>mirana_3</t>
+  </si>
+  <si>
+    <t>mirana_4</t>
+  </si>
+  <si>
+    <t>void_spirit_1</t>
+  </si>
+  <si>
+    <t>void_spirit_2</t>
+  </si>
+  <si>
+    <t>void_spirit_3</t>
+  </si>
+  <si>
+    <t>bounty_hunter_1</t>
+  </si>
+  <si>
+    <t>bounty_hunter_2</t>
+  </si>
+  <si>
+    <t>bounty_hunter_3</t>
+  </si>
+  <si>
+    <t>dragon_knight_1</t>
+  </si>
+  <si>
+    <t>dragon_knight_2</t>
+  </si>
+  <si>
+    <t>dragon_knight_3</t>
+  </si>
+  <si>
+    <t>slardar_1</t>
+  </si>
+  <si>
+    <t>slardar_2</t>
+  </si>
+  <si>
+    <t>slardar_3</t>
+  </si>
+  <si>
+    <t>slark_1</t>
+  </si>
+  <si>
+    <t>slark_2</t>
+  </si>
+  <si>
+    <t>slark_3</t>
+  </si>
+  <si>
+    <t>ursa_1</t>
+  </si>
+  <si>
+    <t>ursa_2</t>
+  </si>
+  <si>
+    <t>ursa_3</t>
+  </si>
+  <si>
+    <t>crystal_maiden_1</t>
+  </si>
+  <si>
+    <t>crystal_maiden_2</t>
+  </si>
+  <si>
+    <t>crystal_maiden_3</t>
+  </si>
+  <si>
+    <t>ogre_magi_1</t>
+  </si>
+  <si>
+    <t>ogre_magi_2</t>
+  </si>
+  <si>
+    <t>ogre_magi_3</t>
+  </si>
+  <si>
+    <t>sven_1</t>
+  </si>
+  <si>
+    <t>sven_2</t>
+  </si>
+  <si>
+    <t>sven_3</t>
+  </si>
+  <si>
+    <t>medusa_1</t>
+  </si>
+  <si>
+    <t>medusa_2</t>
+  </si>
+  <si>
+    <t>medusa_3</t>
+  </si>
+  <si>
+    <t>leshrac_1</t>
+  </si>
+  <si>
+    <t>leshrac_2</t>
+  </si>
+  <si>
+    <t>leshrac_3</t>
+  </si>
+  <si>
+    <t>centaur_3</t>
+  </si>
+  <si>
+    <t>zuus_1</t>
+  </si>
+  <si>
+    <t>zuus_2</t>
+  </si>
+  <si>
+    <t>zuus_3</t>
+  </si>
+  <si>
+    <t>huskar_1</t>
+  </si>
+  <si>
+    <t>huskar_2</t>
+  </si>
+  <si>
+    <t>huskar_3</t>
+  </si>
+  <si>
+    <t>viper_1</t>
+  </si>
+  <si>
+    <t>viper_2</t>
+  </si>
+  <si>
+    <t>viper_3</t>
+  </si>
+  <si>
+    <t>earth_spirit_1</t>
+  </si>
+  <si>
+    <t>earth_spirit_2</t>
+  </si>
+  <si>
+    <t>earth_spirit_3</t>
+  </si>
+  <si>
+    <t>omniknight_1</t>
+  </si>
+  <si>
+    <t>omniknight_2</t>
+  </si>
+  <si>
+    <t>omniknight_3</t>
+  </si>
+  <si>
+    <t>gyrocopter_1</t>
+  </si>
+  <si>
+    <t>gyrocopter_2</t>
+  </si>
+  <si>
+    <t>gyrocopter_3</t>
+  </si>
+  <si>
+    <t>phantom_assassin_1</t>
+  </si>
+  <si>
+    <t>phantom_assassin_2</t>
+  </si>
+  <si>
+    <t>phantom_assassin_3</t>
+  </si>
+  <si>
+    <t>pugna_1</t>
+  </si>
+  <si>
+    <t>pugna_2</t>
+  </si>
+  <si>
+    <t>pugna_3</t>
+  </si>
+  <si>
+    <t>lone_druid_entangle_custom</t>
+  </si>
+  <si>
+    <t>lone_druid_bear_return_custom</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>swordman_2</t>
-  </si>
-  <si>
-    <t>utopia_2</t>
-  </si>
-  <si>
-    <t>tower_tp</t>
-  </si>
-  <si>
-    <t>Hero_Pangolier</t>
-  </si>
-  <si>
-    <t>Hero_Pangolier.Pick</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_pangolier</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_pangolier.vsndevts</t>
-  </si>
-  <si>
-    <t>soundevents/voscripts/game_sounds_vo_pangolin.vsndevts</t>
-  </si>
-  <si>
-    <t>models/heroes/pangolier/pangolier.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t01</t>
-  </si>
-  <si>
-    <t>item_building_hero_t01</t>
-  </si>
-  <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t01</t>
-  </si>
-  <si>
-    <t>dire_1</t>
-  </si>
-  <si>
-    <t>Creep_Bad_Melee</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_creeps.vsndevts</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t02</t>
-  </si>
-  <si>
-    <t>item_building_hero_t02</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t02</t>
-  </si>
-  <si>
-    <t>dire_2</t>
-  </si>
-  <si>
-    <t>particles/base_attacks/ranged_badguy.vpcf</t>
-  </si>
-  <si>
-    <t>Creep_Bad_Range</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_bad_ranged/lane_dire_ranged.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t03</t>
-  </si>
-  <si>
-    <t>item_building_hero_t03</t>
-  </si>
-  <si>
-    <t>狂暴枭兽</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t03</t>
-  </si>
-  <si>
-    <t>animal_1</t>
-  </si>
-  <si>
-    <t>particles/econ/items/keeper_of_the_light/kotl_weapon_arcane_staff/keeper_base_attack_arcane_staff.vpcf</t>
-  </si>
-  <si>
-    <t>n_creep_Ranged</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_vulture_a/n_creep_vulture_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t04</t>
-  </si>
-  <si>
-    <t>item_building_hero_t04</t>
-  </si>
-  <si>
-    <t>死灵幽魂</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t04</t>
-  </si>
-  <si>
-    <t>soul_1</t>
-  </si>
-  <si>
-    <t>particles/neutral_fx/ghost_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_radiant_ranged_diretide/creep_radiant_ranged_diretide.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t05</t>
-  </si>
-  <si>
-    <t>item_building_hero_t05</t>
-  </si>
-  <si>
-    <t>天辉近战兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t05</t>
-  </si>
-  <si>
-    <t>radiant_1</t>
-  </si>
-  <si>
-    <t>Creep_Good_Melee</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_radiant_melee/radiant_melee.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t06</t>
-  </si>
-  <si>
-    <t>item_building_hero_t06</t>
-  </si>
-  <si>
-    <t>天辉远程兵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t06</t>
-  </si>
-  <si>
-    <t>radiant_2</t>
-  </si>
-  <si>
-    <t>particles/base_attacks/ranged_goodguy.vpcf</t>
-  </si>
-  <si>
-    <t>Creep_Good_Range</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_radiant_ranged/radiant_ranged.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t07</t>
-  </si>
-  <si>
-    <t>item_building_hero_t07</t>
-  </si>
-  <si>
-    <t>萨特·地狱使者</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t07</t>
-  </si>
-  <si>
-    <t>envoy_2</t>
-  </si>
-  <si>
-    <t>n_creep_Melee</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_satyr_a/n_creep_satyr_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t08</t>
-  </si>
-  <si>
-    <t>item_building_hero_t08</t>
-  </si>
-  <si>
-    <t>风暴巫师</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t08</t>
-  </si>
-  <si>
-    <t>electricity_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_harpy_b/n_creep_harpy_b.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t10</t>
-  </si>
-  <si>
-    <t>item_building_hero_t10</t>
-  </si>
-  <si>
-    <t>半人马酋长</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t10</t>
-  </si>
-  <si>
-    <t>berserker_2</t>
-  </si>
-  <si>
-    <t>centaur_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_centaur_lrg/n_creep_centaur_lrg.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t11</t>
-  </si>
-  <si>
-    <t>item_building_hero_t11</t>
-  </si>
-  <si>
-    <t>黑暗巨魔萨满</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t11</t>
-  </si>
-  <si>
-    <t>poison_1</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_troll_dark_b/n_creep_troll_dark_b.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t12</t>
-  </si>
-  <si>
-    <t>item_building_hero_t12</t>
-  </si>
-  <si>
-    <t>食人魔棒槌手</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t12</t>
-  </si>
-  <si>
-    <t>fat_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_ogre_med/n_creep_ogre_med.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t15</t>
-  </si>
-  <si>
-    <t>item_building_hero_t15</t>
-  </si>
-  <si>
-    <t>狗头人奴隶主</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t15</t>
-  </si>
-  <si>
-    <t>thief_2</t>
-  </si>
-  <si>
-    <t>goblin_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_a/n_creep_kobold_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t16</t>
-  </si>
-  <si>
-    <t>item_building_hero_t16</t>
-  </si>
-  <si>
-    <t>雷肤兽</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t16</t>
-  </si>
-  <si>
-    <t>animal_2</t>
-  </si>
-  <si>
-    <t>particles/neutral_fx/thunderlizard_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_thunder_lizard/n_creep_thunder_lizard_big.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t17</t>
-  </si>
-  <si>
-    <t>item_building_hero_t17</t>
-  </si>
-  <si>
-    <t>森林巨魔巫师</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t17</t>
-  </si>
-  <si>
-    <t>troll_1</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_forest_trolls/n_creep_forest_troll_high_priest.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t19</t>
-  </si>
-  <si>
-    <t>item_building_hero_t19</t>
-  </si>
-  <si>
-    <t>狂暴熊怪</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t19</t>
-  </si>
-  <si>
-    <t>guard_3</t>
-  </si>
-  <si>
-    <t>bearman_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_furbolg/n_creep_furbolg_disrupter.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t21</t>
-  </si>
-  <si>
-    <t>item_building_hero_t21</t>
-  </si>
-  <si>
-    <t>虚灵守卫</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t21</t>
-  </si>
-  <si>
-    <t>guard_2</t>
-  </si>
-  <si>
-    <t>nether_2</t>
-  </si>
-  <si>
-    <t>models/items/pugna/ward/draining_wight/draining_wight.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t22</t>
-  </si>
-  <si>
-    <t>item_building_hero_t22</t>
-  </si>
-  <si>
-    <t>魔火精灵</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t22</t>
-  </si>
-  <si>
-    <t>puppet_1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_invoker/invoker_forged_spirit_projectile.vpcf</t>
-  </si>
-  <si>
-    <t>models/heroes/invoker/forge_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t23</t>
-  </si>
-  <si>
-    <t>item_building_hero_t23</t>
-  </si>
-  <si>
-    <t>恐怖之狼</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t23</t>
-  </si>
-  <si>
-    <t>wolf_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_worg_large/n_creep_worg_large.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t25</t>
-  </si>
-  <si>
-    <t>item_building_hero_t25</t>
-  </si>
-  <si>
-    <t>恶魔之魂</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t25</t>
-  </si>
-  <si>
-    <t>soul_2</t>
-  </si>
-  <si>
-    <t>models/items/invoker/forge_spirit/frostivus2018_invoker_keeper_of_magic_spirit/frostivus2018_invoker_keeper_of_magic_spirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t27</t>
-  </si>
-  <si>
-    <t>item_building_hero_t27</t>
-  </si>
-  <si>
-    <t>风元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t27</t>
-  </si>
-  <si>
-    <t>elements_1</t>
-  </si>
-  <si>
-    <t>storm_2</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_brewmaster/brewmaster_storm_attack.vpcf</t>
-  </si>
-  <si>
-    <t>Brewmaster_Storm</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_windspirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t28</t>
-  </si>
-  <si>
-    <t>item_building_hero_t28</t>
-  </si>
-  <si>
-    <t>土元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t28</t>
-  </si>
-  <si>
-    <t>elements_2</t>
-  </si>
-  <si>
-    <t>earth_2</t>
-  </si>
-  <si>
-    <t>Brewmaster_Earth</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_earthspirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t29</t>
-  </si>
-  <si>
-    <t>item_building_hero_t29</t>
-  </si>
-  <si>
-    <t>火元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t29</t>
-  </si>
-  <si>
-    <t>elements_3</t>
-  </si>
-  <si>
-    <t>flame_1</t>
-  </si>
-  <si>
-    <t>Brewmaster_Fire</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_firespirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t34</t>
-  </si>
-  <si>
-    <t>item_building_hero_t34</t>
-  </si>
-  <si>
-    <t>花岗石傀儡</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t34</t>
-  </si>
-  <si>
-    <t>puppet_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_golem_a/neutral_creep_golem_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t35</t>
-  </si>
-  <si>
-    <t>item_building_hero_t35</t>
-  </si>
-  <si>
-    <t>地狱火</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t35</t>
-  </si>
-  <si>
-    <t>hellfire_1</t>
-  </si>
-  <si>
-    <t>Hero_WarlockGolem</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_heroes/game_sounds_warlock.vsndevts</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/hellsworn_golem/hellsworn_golem.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t36</t>
-  </si>
-  <si>
-    <t>item_building_hero_t36</t>
-  </si>
-  <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t36</t>
-  </si>
-  <si>
-    <t>hostile_2</t>
-  </si>
-  <si>
-    <t>dragon_2</t>
-  </si>
-  <si>
-    <t>particles/neutral_fx/black_dragon_attack.vpcf</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t37</t>
-  </si>
-  <si>
-    <t>item_building_hero_t37</t>
-  </si>
-  <si>
-    <t>虚无元素使</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t37</t>
-  </si>
-  <si>
-    <t>elements_4</t>
-  </si>
-  <si>
-    <t>void_2</t>
-  </si>
-  <si>
-    <t>models/heroes/brewmaster/brewmaster_voidspirit.vmdl</t>
-  </si>
-  <si>
-    <t>building_hero_t41</t>
-  </si>
-  <si>
-    <t>item_building_hero_t41</t>
-  </si>
-  <si>
-    <t>巨魔勇士</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_hero_t41</t>
-  </si>
-  <si>
-    <t>troll_2</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_troll_dark_a/n_creep_troll_dark_a.vmdl</t>
-  </si>
-  <si>
-    <t>building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>item_building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>芒果树</t>
-  </si>
-  <si>
-    <t>npc\units\building\tower\building_unit_mango_tree</t>
-  </si>
-  <si>
-    <t>models/props_tree/mango_tree.vmdl</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>表头</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>building_unit_tower</t>
-  </si>
-  <si>
-    <t>Creature</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>1&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>2&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>3&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>4&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>5&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>6&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>7&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>8&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>9&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>10&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>ember_spirit_1</t>
-  </si>
-  <si>
-    <t>ember_spirit_2</t>
-  </si>
-  <si>
-    <t>ember_spirit_3</t>
-  </si>
-  <si>
-    <t>ability_empty</t>
-  </si>
-  <si>
-    <t>empty_4</t>
-  </si>
-  <si>
-    <t>axe_1</t>
-  </si>
-  <si>
-    <t>axe_2</t>
-  </si>
-  <si>
-    <t>axe_3</t>
-  </si>
-  <si>
-    <t>tinker_1</t>
-  </si>
-  <si>
-    <t>tinker_2</t>
-  </si>
-  <si>
-    <t>tinker_3</t>
-  </si>
-  <si>
-    <t>tinker_4</t>
-  </si>
-  <si>
-    <t>sniper_1</t>
-  </si>
-  <si>
-    <t>sniper_2</t>
-  </si>
-  <si>
-    <t>sniper_3</t>
-  </si>
-  <si>
-    <t>storm_spirit_1</t>
-  </si>
-  <si>
-    <t>storm_spirit_2</t>
-  </si>
-  <si>
-    <t>storm_spirit_3</t>
-  </si>
-  <si>
-    <t>death_prophet_1</t>
-  </si>
-  <si>
-    <t>death_prophet_2</t>
-  </si>
-  <si>
-    <t>death_prophet_3</t>
-  </si>
-  <si>
-    <t>luna_1</t>
-  </si>
-  <si>
-    <t>luna_2</t>
-  </si>
-  <si>
-    <t>luna_3</t>
-  </si>
-  <si>
-    <t>juggernaut_1</t>
-  </si>
-  <si>
-    <t>juggernaut_2</t>
-  </si>
-  <si>
-    <t>juggernaut_3</t>
-  </si>
-  <si>
-    <t>juggernaut_4</t>
-  </si>
-  <si>
-    <t>lycan_1</t>
-  </si>
-  <si>
-    <t>lycan_2</t>
-  </si>
-  <si>
-    <t>lycan_3</t>
-  </si>
-  <si>
-    <t>venomancer_1</t>
-  </si>
-  <si>
-    <t>venomancer_2</t>
-  </si>
-  <si>
-    <t>venomancer_3</t>
-  </si>
-  <si>
-    <t>disruptor_1</t>
-  </si>
-  <si>
-    <t>disruptor_2</t>
-  </si>
-  <si>
-    <t>disruptor_3</t>
-  </si>
-  <si>
-    <t>chaos_knight_1</t>
-  </si>
-  <si>
-    <t>chaos_knight_2</t>
-  </si>
-  <si>
-    <t>chaos_knight_3</t>
-  </si>
-  <si>
-    <t>common_six_star</t>
-  </si>
-  <si>
-    <t>winter_wyvern_1</t>
-  </si>
-  <si>
-    <t>winter_wyvern_2</t>
-  </si>
-  <si>
-    <t>winter_wyvern_3</t>
-  </si>
-  <si>
-    <t>winter_wyvern_4</t>
-  </si>
-  <si>
-    <t>lone_druid_1</t>
-  </si>
-  <si>
-    <t>lone_druid_2</t>
-  </si>
-  <si>
-    <t>lone_druid_3</t>
-  </si>
-  <si>
-    <t>alchemist_1</t>
-  </si>
-  <si>
-    <t>alchemist_2</t>
-  </si>
-  <si>
-    <t>alchemist_3</t>
-  </si>
-  <si>
-    <t>alchemist_4</t>
-  </si>
-  <si>
-    <t>templar_assassin_1</t>
-  </si>
-  <si>
-    <t>templar_assassin_2</t>
-  </si>
-  <si>
-    <t>templar_assassin_3</t>
-  </si>
-  <si>
-    <t>furion_3</t>
-  </si>
-  <si>
-    <t>shredder_1</t>
-  </si>
-  <si>
-    <t>shredder_2</t>
-  </si>
-  <si>
-    <t>shredder_3</t>
-  </si>
-  <si>
-    <t>mirana_1</t>
-  </si>
-  <si>
-    <t>mirana_2</t>
-  </si>
-  <si>
-    <t>mirana_3</t>
-  </si>
-  <si>
-    <t>mirana_4</t>
-  </si>
-  <si>
-    <t>void_spirit_1</t>
-  </si>
-  <si>
-    <t>void_spirit_2</t>
-  </si>
-  <si>
-    <t>void_spirit_3</t>
-  </si>
-  <si>
-    <t>bounty_hunter_1</t>
-  </si>
-  <si>
-    <t>bounty_hunter_2</t>
-  </si>
-  <si>
-    <t>bounty_hunter_3</t>
-  </si>
-  <si>
-    <t>dragon_knight_1</t>
-  </si>
-  <si>
-    <t>dragon_knight_2</t>
-  </si>
-  <si>
-    <t>dragon_knight_3</t>
-  </si>
-  <si>
-    <t>slardar_1</t>
-  </si>
-  <si>
-    <t>slardar_2</t>
-  </si>
-  <si>
-    <t>slardar_3</t>
-  </si>
-  <si>
-    <t>slark_1</t>
-  </si>
-  <si>
-    <t>slark_2</t>
-  </si>
-  <si>
-    <t>slark_3</t>
-  </si>
-  <si>
-    <t>ursa_1</t>
-  </si>
-  <si>
-    <t>ursa_2</t>
-  </si>
-  <si>
-    <t>ursa_3</t>
-  </si>
-  <si>
-    <t>crystal_maiden_1</t>
-  </si>
-  <si>
-    <t>crystal_maiden_2</t>
-  </si>
-  <si>
-    <t>crystal_maiden_3</t>
-  </si>
-  <si>
-    <t>ogre_magi_1</t>
-  </si>
-  <si>
-    <t>ogre_magi_2</t>
-  </si>
-  <si>
-    <t>ogre_magi_3</t>
-  </si>
-  <si>
-    <t>sven_1</t>
-  </si>
-  <si>
-    <t>sven_2</t>
-  </si>
-  <si>
-    <t>sven_3</t>
-  </si>
-  <si>
-    <t>medusa_1</t>
-  </si>
-  <si>
-    <t>medusa_2</t>
-  </si>
-  <si>
-    <t>medusa_3</t>
-  </si>
-  <si>
-    <t>leshrac_1</t>
-  </si>
-  <si>
-    <t>leshrac_2</t>
-  </si>
-  <si>
-    <t>leshrac_3</t>
-  </si>
-  <si>
-    <t>centaur_3</t>
-  </si>
-  <si>
-    <t>zuus_1</t>
-  </si>
-  <si>
-    <t>zuus_2</t>
-  </si>
-  <si>
-    <t>zuus_3</t>
-  </si>
-  <si>
-    <t>huskar_1</t>
-  </si>
-  <si>
-    <t>huskar_2</t>
-  </si>
-  <si>
-    <t>huskar_3</t>
-  </si>
-  <si>
-    <t>viper_1</t>
-  </si>
-  <si>
-    <t>viper_2</t>
-  </si>
-  <si>
-    <t>viper_3</t>
-  </si>
-  <si>
-    <t>earth_spirit_1</t>
-  </si>
-  <si>
-    <t>earth_spirit_2</t>
-  </si>
-  <si>
-    <t>earth_spirit_3</t>
-  </si>
-  <si>
-    <t>omniknight_1</t>
-  </si>
-  <si>
-    <t>omniknight_2</t>
-  </si>
-  <si>
-    <t>omniknight_3</t>
-  </si>
-  <si>
-    <t>gyrocopter_1</t>
-  </si>
-  <si>
-    <t>gyrocopter_2</t>
-  </si>
-  <si>
-    <t>gyrocopter_3</t>
-  </si>
-  <si>
-    <t>phantom_assassin_1</t>
-  </si>
-  <si>
-    <t>phantom_assassin_2</t>
-  </si>
-  <si>
-    <t>phantom_assassin_3</t>
-  </si>
-  <si>
-    <t>pugna_1</t>
-  </si>
-  <si>
-    <t>pugna_2</t>
-  </si>
-  <si>
-    <t>pugna_3</t>
-  </si>
-  <si>
-    <t>lone_druid_entangle_custom</t>
-  </si>
-  <si>
-    <t>lone_druid_bear_return_custom</t>
   </si>
   <si>
     <t>pangolier_1</t>
@@ -3408,14 +3417,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3423,7 +3432,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3461,22 +3470,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3498,9 +3491,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3528,24 +3552,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3614,25 +3623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3644,13 +3653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3668,13 +3671,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3686,79 +3785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3771,30 +3804,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3852,6 +3861,63 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3862,15 +3928,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3900,64 +3957,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3966,16 +3975,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3984,115 +3993,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4525,8 +4534,8 @@
   <sheetPr/>
   <dimension ref="A1:CI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD$1:AD$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4545,6 +4554,7 @@
     <col min="17" max="17" width="21.25" customWidth="1"/>
     <col min="29" max="29" width="11.25" customWidth="1"/>
     <col min="31" max="31" width="91.4166666666667" customWidth="1"/>
+    <col min="33" max="33" width="28.75" customWidth="1"/>
     <col min="74" max="74" width="20.25" style="35" customWidth="1"/>
     <col min="75" max="75" width="30.5833333333333" style="35" customWidth="1"/>
   </cols>
@@ -23567,7 +23577,7 @@
         <v>103002</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
@@ -23582,16 +23592,16 @@
         <v>16</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>679</v>
@@ -23817,7 +23827,7 @@
         <v>103004</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
@@ -23841,7 +23851,7 @@
         <v>170</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>679</v>
@@ -24061,7 +24071,7 @@
         <v>103005</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
@@ -24076,16 +24086,16 @@
         <v>6</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>908</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>907</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>679</v>
@@ -24311,7 +24321,7 @@
         <v>103006</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
@@ -24326,16 +24336,16 @@
         <v>15</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>679</v>
@@ -24557,7 +24567,7 @@
         <v>103010</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
@@ -24572,16 +24582,16 @@
         <v>4</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>679</v>
@@ -24803,7 +24813,7 @@
         <v>103015</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H8" s="6">
         <v>3</v>
@@ -24818,16 +24828,16 @@
         <v>13</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>679</v>
@@ -25045,7 +25055,7 @@
         <v>103025</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H9" s="6">
         <v>3</v>
@@ -25060,16 +25070,16 @@
         <v>12</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>679</v>
@@ -25293,7 +25303,7 @@
         <v>103026</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
@@ -25308,16 +25318,16 @@
         <v>8</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>679</v>
@@ -25539,7 +25549,7 @@
         <v>103035</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
@@ -25554,16 +25564,16 @@
         <v>8</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>679</v>
@@ -25787,7 +25797,7 @@
         <v>102046</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H12" s="6">
         <v>3</v>
@@ -25802,16 +25812,16 @@
         <v>7</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>679</v>
@@ -26039,7 +26049,7 @@
         <v>103054</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H13" s="6">
         <v>3</v>
@@ -26054,16 +26064,16 @@
         <v>6</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>679</v>
@@ -26287,7 +26297,7 @@
         <v>103064</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H14" s="6">
         <v>3</v>
@@ -26302,16 +26312,16 @@
         <v>5</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>679</v>
@@ -26537,7 +26547,7 @@
         <v>103102</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H15" s="6">
         <v>3</v>
@@ -26548,16 +26558,16 @@
         <v>6</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>679</v>
@@ -26775,7 +26785,7 @@
         <v>103103</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H16" s="6">
         <v>3</v>
@@ -26790,16 +26800,16 @@
         <v>6</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>679</v>
@@ -27021,7 +27031,7 @@
         <v>103104</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H17" s="6">
         <v>3</v>
@@ -27036,16 +27046,16 @@
         <v>8</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>679</v>
@@ -27271,7 +27281,7 @@
         <v>103105</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H18" s="6">
         <v>3</v>
@@ -27286,16 +27296,16 @@
         <v>8</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>679</v>
@@ -27513,7 +27523,7 @@
         <v>103106</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="H19" s="6">
         <v>3</v>
@@ -27528,16 +27538,16 @@
         <v>14</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>679</v>
@@ -27759,7 +27769,7 @@
         <v>102001</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H20" s="6">
         <v>2</v>
@@ -27780,10 +27790,10 @@
         <v>262</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>679</v>
@@ -28013,7 +28023,7 @@
         <v>102008</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H21" s="6">
         <v>2</v>
@@ -28028,16 +28038,16 @@
         <v>3</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>679</v>
@@ -28263,7 +28273,7 @@
         <v>102012</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H22" s="6">
         <v>2</v>
@@ -28278,16 +28288,16 @@
         <v>2</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>679</v>
@@ -28513,7 +28523,7 @@
         <v>102016</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H23" s="6">
         <v>2</v>
@@ -28528,16 +28538,16 @@
         <v>2</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>679</v>
@@ -28757,7 +28767,7 @@
         <v>102022</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H24" s="6">
         <v>2</v>
@@ -28772,16 +28782,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>679</v>
@@ -29013,7 +29023,7 @@
         <v>102028</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H25" s="6">
         <v>2</v>
@@ -29026,16 +29036,16 @@
         <v>2</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>679</v>
@@ -29261,7 +29271,7 @@
         <v>102029</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H26" s="6">
         <v>2</v>
@@ -29276,16 +29286,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>679</v>
@@ -29507,7 +29517,7 @@
         <v>102030</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H27" s="6">
         <v>2</v>
@@ -29522,16 +29532,16 @@
         <v>3</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>679</v>
@@ -29757,7 +29767,7 @@
         <v>102032</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H28" s="6">
         <v>2</v>
@@ -29770,16 +29780,16 @@
         <v>1</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>679</v>
@@ -29999,7 +30009,7 @@
         <v>102034</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H29" s="6">
         <v>2</v>
@@ -30014,16 +30024,16 @@
         <v>2</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>679</v>
@@ -30245,7 +30255,7 @@
         <v>102036</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H30" s="6">
         <v>2</v>
@@ -30258,16 +30268,16 @@
         <v>2</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>679</v>
@@ -30491,7 +30501,7 @@
         <v>102037</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H31" s="6">
         <v>2</v>
@@ -30506,16 +30516,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>679</v>
@@ -30739,7 +30749,7 @@
         <v>102038</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H32" s="6">
         <v>2</v>
@@ -30754,16 +30764,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>679</v>
@@ -30987,7 +30997,7 @@
         <v>102041</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H33" s="6">
         <v>2</v>
@@ -30998,16 +31008,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>679</v>
@@ -31231,7 +31241,7 @@
         <v>102042</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H34" s="6">
         <v>2</v>
@@ -31250,10 +31260,10 @@
         <v>750</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>679</v>
@@ -31483,7 +31493,7 @@
         <v>102044</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H35" s="6">
         <v>2</v>
@@ -31496,16 +31506,16 @@
         <v>2</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>679</v>
@@ -31727,7 +31737,7 @@
         <v>102051</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H36" s="6">
         <v>2</v>
@@ -31742,16 +31752,16 @@
         <v>2</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>679</v>
@@ -31973,7 +31983,7 @@
         <v>102053</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H37" s="6">
         <v>2</v>
@@ -31986,16 +31996,16 @@
         <v>2</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>679</v>
@@ -32215,7 +32225,7 @@
         <v>102058</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H38" s="6">
         <v>2</v>
@@ -32230,16 +32240,16 @@
         <v>2</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>679</v>
@@ -32467,7 +32477,7 @@
         <v>102100</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H39" s="6">
         <v>2</v>
@@ -32482,16 +32492,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>679</v>
@@ -32713,7 +32723,7 @@
         <v>102101</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H40" s="6">
         <v>2</v>
@@ -32728,16 +32738,16 @@
         <v>2</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>679</v>
@@ -32961,7 +32971,7 @@
         <v>102102</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H41" s="6">
         <v>2</v>
@@ -32974,16 +32984,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>679</v>
@@ -33201,7 +33211,7 @@
         <v>102103</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H42" s="6">
         <v>2</v>
@@ -33214,16 +33224,16 @@
         <v>2</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>679</v>
@@ -33447,7 +33457,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
@@ -33456,10 +33466,10 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -33655,7 +33665,7 @@
         <v>101047</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H44" s="6">
         <v>1</v>
@@ -33670,16 +33680,16 @@
         <v>9</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>679</v>
@@ -33897,7 +33907,7 @@
         <v>101065</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H45" s="6">
         <v>1</v>
@@ -33910,16 +33920,16 @@
         <v>10</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>679</v>
@@ -34123,7 +34133,7 @@
         <v>101066</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H46" s="6">
         <v>1</v>
@@ -34136,16 +34146,16 @@
         <v>10</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>679</v>
@@ -34351,7 +34361,7 @@
         <v>101067</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H47" s="6">
         <v>1</v>
@@ -34364,16 +34374,16 @@
         <v>10</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>679</v>
@@ -34579,7 +34589,7 @@
         <v>101068</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H48" s="6">
         <v>1</v>
@@ -34592,16 +34602,16 @@
         <v>10</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>679</v>
@@ -34807,7 +34817,7 @@
         <v>101069</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H49" s="6">
         <v>1</v>
@@ -34820,16 +34830,16 @@
         <v>9</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>679</v>
@@ -35033,7 +35043,7 @@
         <v>101070</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H50" s="6">
         <v>1</v>
@@ -35046,16 +35056,16 @@
         <v>9</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>679</v>
@@ -35261,7 +35271,7 @@
         <v>101071</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H51" s="6">
         <v>1</v>
@@ -35274,16 +35284,16 @@
         <v>10</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>679</v>
@@ -35487,7 +35497,7 @@
         <v>101072</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H52" s="6">
         <v>1</v>
@@ -35500,16 +35510,16 @@
         <v>10</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>679</v>
@@ -35715,7 +35725,7 @@
         <v>101074</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H53" s="6">
         <v>1</v>
@@ -35730,16 +35740,16 @@
         <v>9</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>679</v>
@@ -35943,7 +35953,7 @@
         <v>101075</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H54" s="6">
         <v>1</v>
@@ -35956,16 +35966,16 @@
         <v>10</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>679</v>
@@ -36171,7 +36181,7 @@
         <v>101076</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H55" s="6">
         <v>1</v>
@@ -36184,16 +36194,16 @@
         <v>9</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>679</v>
@@ -36397,7 +36407,7 @@
         <v>101079</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H56" s="6">
         <v>1</v>
@@ -36412,16 +36422,16 @@
         <v>9</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>679</v>
@@ -36625,7 +36635,7 @@
         <v>101080</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H57" s="6">
         <v>1</v>
@@ -36638,16 +36648,16 @@
         <v>10</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>679</v>
@@ -36853,7 +36863,7 @@
         <v>101081</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H58" s="6">
         <v>1</v>
@@ -36866,16 +36876,16 @@
         <v>9</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>679</v>
@@ -37081,7 +37091,7 @@
         <v>101083</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H59" s="6">
         <v>1</v>
@@ -37096,16 +37106,16 @@
         <v>9</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>679</v>
@@ -37309,7 +37319,7 @@
         <v>101085</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H60" s="6">
         <v>1</v>
@@ -37324,16 +37334,16 @@
         <v>10</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>679</v>
@@ -37539,7 +37549,7 @@
         <v>101086</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H61" s="6">
         <v>1</v>
@@ -37552,16 +37562,16 @@
         <v>10</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>679</v>
@@ -37767,7 +37777,7 @@
         <v>101087</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H62" s="6">
         <v>1</v>
@@ -37780,16 +37790,16 @@
         <v>10</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>679</v>
@@ -37993,7 +38003,7 @@
         <v>101089</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H63" s="6">
         <v>1</v>
@@ -38006,16 +38016,16 @@
         <v>9</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>679</v>
@@ -38221,7 +38231,7 @@
         <v>101091</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H64" s="6">
         <v>1</v>
@@ -38236,16 +38246,16 @@
         <v>9</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>679</v>
@@ -38451,7 +38461,7 @@
         <v>101092</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H65" s="6">
         <v>1</v>
@@ -38466,16 +38476,16 @@
         <v>9</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>679</v>
@@ -38679,7 +38689,7 @@
         <v>101093</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H66" s="6">
         <v>1</v>
@@ -38694,16 +38704,16 @@
         <v>10</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>679</v>
@@ -38909,7 +38919,7 @@
         <v>101098</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -38922,16 +38932,16 @@
         <v>9</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>679</v>
@@ -39135,7 +39145,7 @@
         <v>102099</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>393</v>
+        <v>959</v>
       </c>
       <c r="H68" s="6">
         <v>2</v>
@@ -39148,16 +39158,16 @@
         <v>1</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>679</v>
@@ -39361,7 +39371,7 @@
         <v>101100</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H69" s="6">
         <v>1</v>
@@ -39376,16 +39386,16 @@
         <v>9</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>679</v>
@@ -39591,7 +39601,7 @@
         <v>101101</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
@@ -39606,16 +39616,16 @@
         <v>10</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>679</v>
@@ -39817,7 +39827,7 @@
         <v>101102</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H71" s="6">
         <v>1</v>
@@ -39830,16 +39840,16 @@
         <v>9</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>679</v>
@@ -40039,7 +40049,7 @@
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6" t="s">
-        <v>676</v>
+        <v>1028</v>
       </c>
       <c r="H72" s="6">
         <v>1</v>
@@ -40050,7 +40060,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>

--- a/code/excels/building/building_unit_tower.xlsx
+++ b/code/excels/building/building_unit_tower.xlsx
@@ -13023,10 +13023,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -13072,29 +13072,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13107,24 +13099,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13132,9 +13109,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13153,11 +13138,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13170,30 +13163,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13209,7 +13180,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13308,54 +13308,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13368,7 +13320,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13380,31 +13440,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13416,79 +13476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13546,6 +13546,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -13564,7 +13579,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13584,50 +13623,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13648,10 +13648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13660,133 +13660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14335,10 +14335,10 @@
   <sheetPr/>
   <dimension ref="A1:EE155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="DI12" sqref="DI12"/>
+      <selection pane="bottomLeft" activeCell="BO6" sqref="BO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>

--- a/code/excels/building/building_unit_tower.xlsx
+++ b/code/excels/building/building_unit_tower.xlsx
@@ -14384,9 +14384,9 @@
   <dimension ref="A1:EE155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="$A126:$XFD126"/>
+      <selection pane="bottomLeft" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
